--- a/data/labeled_data/all sample comments.xlsx
+++ b/data/labeled_data/all sample comments.xlsx
@@ -16,95 +16,2947 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
   <si>
-    <t xml:space="preserve">She’s back._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engine losing power ,,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hahahahha!! All of you just know to speak about Tesla!!! And you can’t stand that we make money with it!!!! TESLA GO UP!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bought some at 7060 .. lets c_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with DJ not lose your money it is strong market
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday reversal?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global governments considering laws regarding Bitcoin. Huge geopolitical risks... very risky with laws pending... https://www.zerohedge.com/news/[PESSIMISTIC VALUE]-01-25/theresa-may-were-very-seriously-considering-action-bitcoin_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Intra-day Buy above 25070, Sell below 24905. Book profits in 70 points
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up or down_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plz suggest can I buy now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bull trap finished , sell target : 24690
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang lower support at $[PESSIMISTIC VALUE] this is not yet done!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What do you think guys, moon?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulls and bear :) ----&amp;gt; 1 not 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had a dream yesterday and tesla was 293.50 as of next Monday._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[PESSIMISTIC VALUE] easy_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what good news do we have today?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please go to [OPTIMISTIC VALUE], so we can shorting again._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panic sell triggered, hitting the SLs. With 4700 broken,BTC has no major support left until MA50=[PESSIMISTIC VALUE]. BTC lacks buyers at the moment. Note that this is the opposite of a parabolic rise. Successive daily drops are indicative of seeking bottom. Once it hits...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk people
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My target is minimum $[OPTIMISTIC VALUE] with the earnings._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP 0_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panic sell will happen around closing session
+    <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorted the DOW at 24..4k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptrend is based off short-selling strats, shorts tend to congregate around delivery estimates and earnings reports. about 2 days after, they close their short positions, which causes a strong spike up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to know who is buying at these levels._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the forecast for the day buy or sell i am new please guide_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Donald Trump. Tesla will be banned in China or at least they will have huge duties ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  usd incoming till december_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will go up to  [OPTIMISTICVALUE]  area "Bull trap"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know what they plan on announcing today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  today??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would be extremely careful as the second target of the rising wedge is exactly at the neck of this huge H&amp;amp;S.; the perfect storm that might not happen_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily my portfolio is 35 percent into bonds_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this a fan club or what? market crashing yet this stock going up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is good to be hodlers these days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present issue in money inflows into to the market.  just not enough cash to lift all the sectors at the same time. .  you can pull the data of wsj._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP500 heading to 2900. This is a Buy Mkt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine I give it a try, It’s weak_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Buffet..Where going to need your HELP" pretty Soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I congratulate you people who bought today and pity those of you who sold. *The news* of the last two months is the fact that Models 3 at 35K, **NOW**. Sales will EXPLODE. There is literally nothing negative since it reached $ [OPTIMISTICVALUE]  but the stock is 275 now, ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone have anything to offer more than what a program can tell me?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell fast posible you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people here Know who's the best and it is not you!!!!!!!!!!!!!!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green light?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So let me get this Autodata reported 2017 sales data correct:  GM sold 23.300 Chevy Bolts in 2017 to Tesla's 1,800 Model 3s and Tesla is a leader in electric car roll out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether bot in bitfinex is being used to defend BTC price now. Looks like it's out of resource to pump again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futures - bears 130 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Musk the equity is worth zero_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after the president's inauguration in Russia this thing is going down. Insider info._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another round of sale off after mobs' lunch break._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bored now. These sideways *******. Need any big red or green candle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the dollar falls the so-called financial expert say, the stock marked is up due to dollar weakens. Today usd is up 0.5 percent against euro and all basket currencies. The job data on friday was bad, no important data has been annonced so far! Why is D...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as it closes above 268.5 today and 271 tomorrow - which is quite likely --- it will start moving north from there_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for info now:. $TSLA short interest $10.4 bn, 35.4 mm shares shorted 27.76% of float_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's shorting from 6750? Anyone?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US first quarter GDP expected lower because of shout down government 800.000 workers not getting paid...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately we believe the company's guidance is aggressive," analysts from Wedbush Securities said in a note to clients. Musk has long resisted the need to raise capital, but he told a conference call with analysts it was now the right time. Several analys...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up people. There is newborn crypto currency Petro, backed by oil, gas, gold and diamonds. Oh, I forgot, what is BTC backed by?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Trump was trying to achieve at was so called partial optimization. By reducing US trade deficits (achieving at partial optimization). the US will sacrifice total optimization, that is, global economy as well as economy in th US._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again and again  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are looking into alts MTC and POLL would be the best choice_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see how they rigg up now all day this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Volkswagen will buy 50 billion euros ($56.57 billion) worth of battery cells for electric cars and has identified South Korea's SKI, LG Chem and Samsung (KS:005930) SDI as strategic battery cell suppliers as well as China's Contemporary Amperex Technology...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still  [PESSIMISTICVALUE] .7k till 1.6 cryptogeorge? Lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done trump, no christmas rally thanks to you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do u people think its early to jump in ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only goes up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your that worried about one position your trade size is to big_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGN Btc  [OPTIMISTICVALUE] $ in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold tight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/news/2018-10-25/analyst-erupts-tesla-they-used-every-trick-every-fraud-put-lipstick-q3-results_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soem people here should stay humble...they made some money (not as much as they say) once in their lifetime of investing and now are giving lessons of life to the others, these people are the losers in the long run, do not follow the so called genious, to ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX isn’t buying it_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouch broke 260. More down trend to come_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm ...money moving to the alt coins now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find this technical study very good ...    .  https://www.tradingview.com/chart/DJI/FJcuEq8a-Trade-War-Technical-Bearish/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody went short_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] $ sooon btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder what happens when election season kicks off..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems that anaother red day today._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So many people will regret for not buying precious metal with this thing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodl !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs cut really! What about semitruck or model Y or the model 3 X or S to many orders so they cut 10% of work force?!?! Cmon!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its boring expect action weather down or up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Capital Markets are running out of gas. They just don't know what to come up with next in order to propel these markets anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made $313 millions and need pay suppliers $600 millions this is the way to make profit nice!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price is way below  [PESSIMISTICVALUE]  already on other exchanges._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy now with sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrespective of Musk production drama, it's shorting time (started 1st day @ [OPTIMISTICVALUE] -343, 2nd day @342-330, 3rd today @332-310) --------. . Next 4 days. 05Jul2018 307 -286-287. 06jul2018  280-266-268. 09jul2108  277-267-273. 10jul 2018  277-263-276. . So the bo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you spot from monthly candle, newbie!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about S America ,... Brazil ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its a good price .. it don’t matter which direction it goes !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Irina?missed her comments today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china will tariffs on car import from US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be? Do not fall in love. . Copy-paste. . "The mistake of fanatics is to consider that a speculator knows the product and values it, that's why he buys it; it's not like that, the speculator buys because it rises and gives it a yield, be it an stock, an ind...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up.  The trend is your friend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye BTC... RIP. We will miss you._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dow needs a lot of adjustments to go up.  DOW can not go up without adjustment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many time did we shorts on this forum warned that betting on China is a big mistake by Elon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC once again attempted to stay above the daily MA50, however, it pulled back. The price rebounded from Fib50%= [OPTIMISTICVALUE] /past weekly close(8232.3) &amp;amp; the BB is becoming narrower (8706-8030). The daily TI continue to exert selling pressures which are always bein...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry Bears ... Trump kicked your Assy again :) lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markets are up but investors have lost confidence in this stock -$ [PESSIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] k drop from kumar sell and now its the pits?.... kumar... you have strike  [PESSIMISTICVALUE] .... wanna beeee long Bitcoin lmao_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper pls help_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fact Audi launches its own electric vehicle simply means that TSLA is at least one decade ahead with their technology compared to the competition. decade in technology terms is comparable to centuries in mechanical terms. I assume that makes very clear...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..good mourning_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just follow the trend up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open your eyes and look the big picrure, general market is down, FB crash etc, it has nothing to do with any analyst comments or your belife on Tesla, it is market risk, ur tsla goes down when the market is down, thats all you need to know._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today for bears as i said since morning time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today update up or down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upside limited  [OPTIMISTICVALUE]  Downside 5200 I think it's still bettet to short the btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just as I expected .... a booming economy and what a ridiculous reaction yesterday._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems this is the ,most stable company in nasdaq.. Perfect balance sheet_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this going up to  [OPTIMISTICVALUE]  or I'd it getting ready to take as dump in my face_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow’s gonna roll hard into the fed decision next week...no rate hike as a result..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musk is the biggest asset of Tesla!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily says dump weekly says dunno_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be some retracement on Monday up to 25750-26000 area to get more sellers with the target  [PESSIMISTICVALUE] ..Need to touch SMA200  to renew sale force... today was a free fall at the end of the day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you trade enough, you'll know this is all just monthly opex hype. The next few weeks will be back to normal._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still inside my pattern. I am in no hurry waiting for  [PESSIMISTICVALUE]  to buy. 2920 is a possibility also but I''d rather be a little early than miss the opportunity._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take take take your hand :DD ahahah . or open sell ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great opportunity to buy. Model 3 is taking off._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that allah for beer because this board is a mess_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa is owned by chinese_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has it bottomed out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC market value against Real estate, just a reminder on how tiny this market is:  https://www.youtube.com/watch?v=qvhd7FqgRZc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let the head cutting begin...Gee it's not even lunch yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock is going to 7314.49, and if it doesn't, it'll go to 1.99.  Trust me, I'm an expert._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win&amp;amp;win; bull_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The train is just stopped on this drive??? "everyone get in or get out" next station is not yet known, Boarding can still if the train ride at walking pace, then no more!. Top speed of a train is unknown to me! As well as the first station where he stops a...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTI Trader and sophie jacobs are the same person.  Swat these fly's away via the block button_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.  [PESSIMISTICVALUE]  coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bear trap carefull_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the moon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next stop 6160_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing, Cat &amp;amp; Intel are major drag and may sustain the down trend today........_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model 3 is available now if you pay $55k so if you are waiting for the $35k forget it! people will start to cancel ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am trading according to the chart, which I posted  [PESSIMISTICVALUE]  hours ago: https://invst.ly/7i-b2 As of now, 5H and daily TI continue to be in the "sell" position, except for StochRSI and Williams - which are in the "oversold" position. Based on the last two indica...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge drop come back......wanna cry_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$305 today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I miss Kumar, his number 6666_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be great if we could at least SEE a pullback after so much upping!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People are insane._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really think that this lack of volume is because many believe this could be wave  [PESSIMISTICVALUE]  or even crazier .. corective wave B. I think this is wave 3. Looking to go a bit above previous high for confirmation. This would play nicely with the big inverted h&amp;amp;s.; Pa...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short folks. I agree that we have an overvalued market. However, there are some solid fundamentals that are aligned. At this moment, Im short. But I will be very quick to exit if things swing north. I do not trust any position right now. Just strategically...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loosing money on every car sold, this company is doomed..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last rally to 10k hit the daily  [PESSIMISTICVALUE]  MA with almost the same count structure with the 4th being only a .236 retrace. The best thing that should've happened for a longer run was getting a sharp retrace right now to the 7400 area and regroup some strength...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwerrtyyyu_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The moment of the truth._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope BTC does not sink without touching  [PESSIMISTICVALUE] .7K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you round off today to 24609, then the DOWS off the ATH by 2018. Maybe there's a hidden message there or maybe it's time for me to get another DOG._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down 2% up 2% up 0.37% I'm so confused_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k by midnight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the longest bull market in history comes the worst bear market in history. I have a feeling this bear market will not be a sudden drop. No snowball effect in this one. More like a butterfly effect. I expect dow in the 12k to 16k range come 2020 elect...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it makes no sense that the stock is up 4% it should be down 20%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good to see that people still have faith buying my precious :) Watch out for 11K though ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should also consider, would you buy a car thats now double what it was 12 months ago ? Equites are supposed to reflect the companies asset value should it be divided up into its parts and sold. . Obviously thats not the case here. Even Michael Bloomberg...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After-hours hahahaha who was trying to buy-the-dip. It was a stop for stock distribution to weak hands!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bears started taking control and have the edge_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America is getting mad_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  by the end of the day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So is it going to be Sell or Buy for the day? What should be be the SL and TF. Newbie here. Help._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like bit-coin._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If people only think where that green energy came from?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/bitcoin-price-intraday-analysis-btcusd-hinting-another-bear-flagpole/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give up dow30 is a joke , bulls crazy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ain't touching this again til it gets near $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have hit  [PESSIMISTICVALUE] .130 This morning. This ***is going up, Easter is almost done. We allready have had so many negative hits, IMO we will get some positivity from now. HODL._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I place a buy for long term.. I'm new on indices_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I still believe._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why can't they find Kumar's IP address and ban him indefinitely from the forum??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to close green after filling gap_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I got burned twice on this during this current run up , once last week and once this week . I short this with Puts and 100 or  [PESSIMISTICVALUE]  shares of the stock.   I should have known better because it was an obviously short squeeze.    Did you short this prior ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has somebody bought Veros (VTS)? If so congratulations, you are rich now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happened_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh what a tangled web we weave, when at first........._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are big players moving this coin. Just like opec did with oil._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me guess, another day of optimistic trade talk headline._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/7o9w-_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☆○ time to buy?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone explain why a no deal Brexit has any affect on the American companies in the Dow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilarious! ;) Added shorts at at 365, 375 and 382._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope we are done guessing.  [OPTIMISTICVALUE]  on the way._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seem like it's going up , but it's not safe to buy this area_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 300 its always good entry point I will add a few more :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tvc-invdn-com.akamaized.net/data/tvc_fcddf705c438e1c9dabe6a551cd7758d.png_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today may be 400-500pts up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is the problem the Y is identical to the 3 so nothing exciting.but people now are cancelling the 3 to buy the Y .plus is not a good looking car. breaking$275 is the big support after who knows!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumb...too difficult to predict with any justification. Perhaps, end of Jan / 1st week of Feb will be cleaner. For me, Jan  [PESSIMISTICVALUE] , and Feb 8 are critical dates for any major swing apart from media burst.. . https://invst.ly/6gair_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't buy..wait patiently it will touch  [PESSIMISTICVALUE]  soon..don't buy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy the dip.. https://invst.ly/agsl2_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it drops below  [PESSIMISTICVALUE]  it will be below wave 1 and invalidate the bullish count on EW. Bulls want a healthy retrace to 7500 then a push to 9K._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is going to go deep..I’m sticking to minus 1k..imo_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will have to manufacture petrol cars , too_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw an asian guy on TV last month. Said he selling his house. Only wants to accept BTC. Wonder how that worked out lol lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms in control...place sell order_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless of noise, the US is not going to do anything meaningfully punitive to their rocket man and Tesla will conquer the world._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pump is over, let the dump begin :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud on his best_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made impossible to order and buy the $35 k model 3 .why ?because they lose money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ john nicol Post  [PESSIMISTICVALUE]  trades here, in public. If 9 of them end up winning, i will sent you 1 BTC on behalf of the community (no need to share your miraculous software). Deal?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call you last night folks all games are being given back manipulators out in full force on and off the floor_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sellers have arrived...no one left to buy._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany’s largest stock exchange Deutsche Börse is working deep on bitcoin. The news of the exchange currently understanding the concept of “underlying transactions” and regulatory effect to launch bitcoin services came a week after Germany’s 2nd largest b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's impossible to have such volatility after FED. Normally, DOW is fluctuating 0.5-0.8%/day. Something else is the ,,middle" of troubles..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to short at  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double up on shorts. Looks like a massacre. Sell above 6K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice that large Market drops have occurred within weeks of some of the Largest Retail inflows in history. Large retail inflows is one of the best indicators there is for going short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345 god entry point for going long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its trading so sideways these days I have to look at the 1m chart to even see some volatility_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thing is money eater. Wall street always wins. Like casino_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very important test of $270 if it breaks it may actually go up higher or will reverse course?  what will it be?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRP PUMP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Intra-day Buy above 25923 Targets 25943 25974. Sell below  [PESSIMISTICVALUE]  Targets 25838 25808. Bullish above 25976. Bearish below 25806_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are bearish/short: . - the moat around tesla is gone; . - competition encroaching, . - brand name blemished. - 10 yr. cost of tsla car ownership is higher than CEV. - EV market size is only 1%! total Car market... Who could challenge this?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are we red yet?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday long above 26681 Targets 26712 26744. Short below  [PESSIMISTICVALUE]  Targets 26585 26553_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal bull is here :D Good point to enter. hahahaaa_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not your keys not your bitcoin. LOL Quadriga CX_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell off coming after lunch. :(_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you notice people touting NIO are gone?  That stock is currently selling at $6 and going lower!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp will one day 0. [PESSIMISTICVALUE] $ because much circulation of xrp_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bulls will lie and Cheat to save there Lively Hoods...Anything...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People in China gets fined and demoted at their workplace if they own Apple iPhones. Imagine if someone drives Tesla to work in China lol._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about to run more looks like :)-~_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loai hi whats up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA WILL BE MAKING BIG PROFIT VERY VERY VERY SOON!!! I RECOMMEND EVERYONE BUY BUY BUY!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stable growth target  [PESSIMISTICVALUE]  000 in 5 years_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh wow. Will be interesting to see what tomorrow brings. That daily candle is just sick_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have buy  orders at  [PESSIMISTICVALUE] -150_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for ~$7.000 to go long futures or sell puts.. https://invst.ly/6xl78_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Forget this phoney market, folks. Trade forex and metals. Much more predictable. It will just keep on Going until something real, real bad occurs. Sorry_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that's what happen when you don't bribe government workers in China._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It needs to test that  [PESSIMISTICVALUE]  and reject it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like we are heading towards  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I entered yesterday, wish could add some more today as well._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i own  [PESSIMISTICVALUE] .34 btc bought in fractions on the way down. from 8000 $ to here . just added 0.0 [PESSIMISTICVALUE]  btc just now. i also own approx  [PESSIMISTICVALUE]  BTC in altcoins bought or when it was supercheap before the last bull run or bought when it was extremely cheap these days. so my to...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowing China to continue to economically cheat us will really destroy our economy in the long run. Trump is the only President that has ever said enough._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-engadget-com.cdn.ampproject.org/v/s/www.engadget.com/amp/2019/03/08/tesla-investors-sue-over-elon-musk-tweets/?amp_js_v=a2&amp;amp;_gsa=1#referrer=https://www.google.com&amp;amp;_tf=From %1$s&amp;amp;share;=https://www.engadget.com/2019/03/08/tesla-investors-s...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it worth to set up a mining rig? My elektricitet price is 0.06 kw/h ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions that leading this current trend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well, they have reduced the PT to  [OPTIMISTICVALUE]  but Tesla is still outperform_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope there is no one thinking of hurting themselves over money. There are hotlines to help._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake news trying to have the market Recover for what throw The principles are still the same ..Read My Lips THE MARKET IS 50% OVER VALUED.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we break $ [PESSIMISTICVALUE] .50 today next stop $279-280_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here's a reasonable estimate: nnnhttps://cointelegraph.com/news/analyst-predicts-bitcoin-price-rebound-above- [PESSIMISTICVALUE] -000-by-2019_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Move in a-b-c to the upper end of the rising channel is open_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday they registered 4.793 new VINs. And today even 2,915 more. That's 27% of the total in these last 2 days. They really are ramping up the production it seems!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this point, this needs to get back through 9.322 (the Feb. 26th low) to stabilize. Still technically at most important time scales a clear sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22430 coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon musk is just developing his secret sauce Tesla is long money $280 is a ****deal_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/french-finance-minister-reverses-course-touts-cryptocurrencies/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overbought at 15min. It will continue climbing anyway_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning this stock is ready to collapse._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bcc is the real btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow is gambling._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next long is  [PESSIMISTICVALUE]  to 243_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No moon crytpo kittens... gravity pulls you back... 3k is coming :)))))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkisk bank the named Sekerbank #skbnk will be sold soon ...,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anybody else see a gap @  [PESSIMISTICVALUE]  which needs to be closed?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that it?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you may find all the negative data you want. but in the short period it is long!!!! And tomorrow it will go up. and a lot_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook is a strong sell also!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;amp;S; successfully formed. We should be seeing the sights of 8.800 once again this weekend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn't be surprised if it went below $240 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What price is investing showing for bitfinex ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where in the world is Phillip Seago when u need him._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target price $  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am sure  in future we all will use crypto but that is not bitcoin.  or any crypto in the list now first people will forget it then rethinking of a model where there is some stabe monetary behavior._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The more shorts, the more fuel to drive this market up. Bear trend ended on April 2 with a perfect M shape on daily chart and gave a huge buy signal targeting a lower high in the area 25K-25.3K. Yesterday's drop was a false one and got invalidated at the b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like I said before there will be no deal with China and market is about at very late stage from December rally here.  You really have to be stupid to hold stocks now.  Small investor eventually get hurt one way or the other by holding shares that are dropp...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL bulls :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I told u guys going to recover by 10:00am_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla downgraded to underperform at RBC, PT $ [PESSIMISTICVALUE] . Tesla sell rating reiterated by Goldman Sachs, PT $225. Goldman analyst says Model 3 demand likely below internal expectations._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  is goal for now._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for NASDAQ to rollover.  It will take DOW down as well.  Maybe not red but only up about 100_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I keep saing Tesla is, for all intents and purposes, a ponzi scheme. SP flags, investors get imatient, so they hastily announce a new model, draw suckers in, and the price moves up. Of course to the benefit of those already holding. New model proves a comm...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US$ [PESSIMISTICVALUE]  next stop._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This going down quite a bit by eod_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSLA above  [OPTIMISTICVALUE] $/ share in 2018_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.babypips.com/trading/is-bitcoin-dead Some scary reading for the perma bears ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's exactly what I meant yesterday while most of you were making fun of me. I am sorry for all of you shooters. I m not kidding. Pay attention because the climb is NOT over. The trend is green and all the funsamentals lets suppose an increase in the val...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musk and friend are buying all the share to keep this company alive no share to short available._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is my 9000k????_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a crisis ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where are you getting 80% market share exactly?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint Box.... com·plain kəmˈplān/ verb; express dissatisfaction or annoyance about a state of affairs or an event._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just another day of optimism._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So today buy or sell??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After this who will touch this either short or long? Well shorts did well this time, but moves like will wipe out any confidence to trade it IMO._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm lion King.... Lion hunts and fox comes afterwards to take remaining garbage credit. Hahahaha....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to do when everyone wants to short it...oh I know squeeze them out when they think that it should be going down (it makes people mad)...like BA did on its first bad day...and then go down a few days latter._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This looks like an ending 5th or C finishing out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intra-day Long - close above 25369,   Short - close below  [PESSIMISTICVALUE] . Book profits in 30 points for safe side._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My guesses for the announcement is full self-driving demo._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoomed out15 min chart looks similar to when the last bear whale was slayed http://www.billymabrey.com/images/gumprints/the-bitcoin-bearwhale-overlay.jpg_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today -800 point,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massive bubble ready to crash soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont see the price will go under  [PESSIMISTICVALUE] , it will stay at this range, them 8000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air coming out of this bubble. this is just the beginning of the decline_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this stock is toast......done....free falling_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every hope for reversal will be sold watch this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I told ya the bond market is right and equities are wrong._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA =  Waymo + Uber + Mercedes + GE batter/electric SO 2019 year end target easy $530. Exact same price action happened in 2016 ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccn.com/impossible-shut-cryptocurrency-exchanges-govt-lacks-authority-koreas-fair-trade-chief/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Close 680-700_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSLA short interest is $10.19 bn, 28.75 mm shares shorted, 22.36% of float. Stock borrow supply has been replenished by steady Tesla buy-to-covers, -6.0 mm shares since The Tweet &amp;amp; -1.2mm in Nov, it is now almost a General Collateral stock borrow. Saw more...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think end of the mystery soon SOER_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as stock markets are immune to the economic indicators, it just shows the size of the bubble we are in..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla would do very well going private. Company is not ready if stay in IPO $ [PESSIMISTICVALUE]  real fast_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm so happy right now this is really going up, Hahahah :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy dow every dip_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark my words, this will hit 500. it's an approtunity to buy... Warren Buffett says " buy when people are afraid and sell whe they are greedy"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the XEM BTC chart.... Cup formation?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake news time to burn_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a dream tesla is gonna be 410. hopefully.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When i told you we are going to 20k and i was sent to see a doctor :) https://www.tradingview.com/x/att55FPd/. . https://www.investing.com/crypto/bitcoin/chat?comment=6729859#6730009_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulls are exhausted :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOL......I guess I would wish it too if I'd own it. Don't kid yourself.....it's a Falling Knife...take a profit while you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6390+/- unless it confirms before hand, then my method would be wait and buy the retest of sellers as close to 6390+/- as given. AIs are pesky devils, they make you play their game ;)._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here comes my beautiful red Christmas!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please don't panic, there's a Tesla out there in SPACE!! :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korean Card Companies Block Transactions to Overseas Cryptocurrency Exchanges_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China stocks rally on policy easing speculation. https://www.thestar.com.my/business/business-news/2018/04/25/china-stocks-rally-on-policy-easing-speculation/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are news of the last 3 months: 1) M3 started selling in EU and China. It become #1 selling car in Germany and Norway. 2) 35K model of Model 3 became available in US becoming #1 selling car in California, the biggest car market in US, deliveries had t...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i sip AT's for breakfast :)-~_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to tell you earlier, below 24k was capitulation._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla not evening going under 271_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im hoping ETH to take over_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonna come back cus Walmart oversold your gonna see comeback on Walmart cus Walmart is_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in other news, Tesla Chief Elon Musk changes his twitter account name to Elon Tusk and stock goes up 4%!!! Amazing company!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone else hear the Jaws theme playing in the background? Seems like a short trap getting ready to spring._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper any Sl_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See you down around $ [PESSIMISTICVALUE]  :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everybody on the train?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like down 500 points or more by the end of the day... debt just increased_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic is punishing Tesla for planning to do business with Chinese battery producer and Maxwell deal :D Good move Panasonic good move but now it is certain you will not get anything new from Tesla._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, it's bearish but going up? bull trap?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to do with fundamentals, it's all Market manipulation, the few are still making tons and tons of money while Middle America is losing tons and I am in the business so I know what I'm talking about_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla 50usd_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still weak, but looks like another short term support here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The daily 200 MA is at  [PESSIMISTICVALUE] .  I strongly believe that is where we are heading.  There SHOULD be a bounce off of there.  After that, I have no clue._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan Stanley: We build our estimates based on rumors, FUDsters and fossil interest. We don't care about *numbers* or *industry trends*. :D:D:D:D:_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binance going nuts buys UP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to " C "_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my, this is intense! If it breaks resistance it'll be short squeeze world have never seen before!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">already eth, lts,xrp are red. I wonder someone front running the attack of the BIG Kahuna?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will go up?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bet trump  interest in spacex at vow speech  rise Tesla’s stocks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets see if head and shoulder on 15min gonna play out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are still using Boeing to be in green. Up today by almost 3%! The important date for dow is 31st January when Boeing announce their q4 results._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its going to end at  [OPTIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead market is always boring... *YAWN*_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how big you suppose that correction can be? entered in 26. this hurts.. really_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company has great vision. i think they're rushing it tho. Target 1 IPO and then i'll see if it has bottomed_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only  [PESSIMISTICVALUE]  million, so it’s expensive lolll_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i bought 24484 dont use margin :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now time for CREDIT DOWNGRADE and 0$ funding = Chapter 11 in a month maximum_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheers! "Yellow vests knock out  [PESSIMISTICVALUE] % of all speed cameras in France" Keep it up ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed dow sells 23395_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it's any consolation, I also lost a ton of money today, being that I was holding only J20  [OPTIMISTICVALUE]  call options, but at least I'm not going to lose as much money as you shorts.  GG._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here we go.. bitcoin willgo down like messi missed his penalty_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear coming back_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They really said this stock dipped this hard due to news LOL The media man... All against TSLA_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNB flying on the news of binance to give some airdrop of one of the tokens for the top 500k BNB holders_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because They have you so called Bulls Brain Washed...You'll See soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">premarket down to 245.2. looks like we are going to a steep slump._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell until  [PESSIMISTICVALUE]  support end of bullish_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there's a rising 50 m/a (15m), which has provided upward support all day. we're sitting just 12 pts above it at present._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.. It's quite bad.. Cannot trust Tesla..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this weekend around  [PESSIMISTICVALUE] -4k stock market crash as well._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT again? obviously a day chart rise in a straight line_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital increase soon, equity offering_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorts ( [PESSIMISTICVALUE]  and 6400) hit SL at daily EMA26 ~6600._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literally those big investors took out money ahead to prevent a huge loss due to fear of the market, so as soon as those who fear ran away they re-invest their money, they have to, holding the money wont do any good to them._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will down again. Today high should be around 322$ and then down to  [PESSIMISTICVALUE] $._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btc to gold parity is a minimum, choose the winner and the looser_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fear and panic of the thundering herd will drive the market into the ground. I see stock market decline as a good time to buy. I don't get why people are locking into bonds now when interest are likely to increase even higher._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartizination. The flag zone deadline passed  [PESSIMISTICVALUE]  hours ago and I expect sideways for a week 3500-3800, then a fighter jet spectacle._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insane!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short will get nailed soon.  Just a little bit of time.  Looks like $340 is holding so its only up from here!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin violates all the rules of money. But it will be around as some people need to conduct their business in bitcoin._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy trigger hit again. Same time every day lately._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but if it gets to $50, the narrative will be that its going out of business, it'll be scary_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*panic sell*_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today stand on 25518? Probably not._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did buy yesterday at  [OPTIMISTICVALUE] ...and did buy today at 241...iam holding_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well i just added to my shorts, this dead cat is done with it's bouncing._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this market will close moderately higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are week deliveries priced in?  Here we go look here  https://www.marketwatch.com/story/weak-tesla-deliveries-already-priced-in-analyst-says-2019-03-28?siteid=rss&amp;amp;rss;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar vanished, i think hes setting up his longs lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pls tell me_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what a gift_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely to turn around and drop hard_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ, it feels like I'm right. I'm still holding a leveraged long position, but I want to sit a while before I short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btc looking sketchy..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash today to  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3 is starting to show up across Europe!. Good luck short's....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it cryptowinter yes or no?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOW shed 800 points despite of positive GDP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So as the Goldman Analyst pointed out on the call, none of the Tesla cars have Lidar, so their autopilot will never work. This call is both weird and horrible._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have had enough of these whales. They are playing with Fire. If 8k breaks down. Crypto could go extincts. Thanks alot._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy dow now it will explode_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon Musk will not purchase back shares. The truth is he can't get any other investors, so raising the stock price is his way to get the capital needed for his new factory._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's being continuously rejected. Follow the trend and don't fight against it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caution VIX is still green_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to  [PESSIMISTICVALUE] . this is time to get the f .o._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omg the doomtellers XD_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All world markets operated from single centralised location_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Look at chart-. This is value that is showing their vaue. Stock value= Company Value / Market Value. nasdaq . watch . See . Understand._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again. Bear market does not end just in a few weeks. We will see long lasting bear market ever in history._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireworks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems like It'll fall to $ [PESSIMISTICVALUE]  before going up. I'd suggest to wait until then or sell for those 20 points_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sobering reminder of who how lopsided the wealth distribution in crypto is. Hodl should be the only strategy for most. I said this a million times and now here's the study: nnnhttps://www.bloomberg.com/news/articles/ [PESSIMISTICVALUE] -02-07/bitcoin-may-evolve-into-wha...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow jumps_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lol 25% short float, RIP. 1/4 of all outstanding shares are being shorted. That's a great sign of health! JK_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is how I see the rest of the week going down... ;) CG is likely right about BTC hitting  [PESSIMISTICVALUE]  however it's more likely to start tomorrow and/or Friday due to economic news releases. Money flow should head to the USD Thur. Core Durable Goods Orders m/m ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What just happened. Margin calls activated_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The evaluation of this stock is way out of whack...imo...this stock reflect only hype and not considerate of value based on sales , reliability and future acceptance ... not to mention unsure support and leadership... I value this stock at around  [PESSIMISTICVALUE] -to 25...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get something butter than get nothing sale or buy :) do’t expect hope_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks finish their worst week in two years as investors fear trade war._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that ppl are buying before the model Y announcement. I think it will be big and some some good news (maybe numbers on 35K model3 preorders, this should sell like hot cake) are comming._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global financial market crisis will put this crypto all time low. Sell all your assets and buy gold._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello everyone what’s the difference between this dow and the MT5 dow anyone know what the difference? Answer pls!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://insideevs.com/tesla-model-3-sales-u-s-january-2019/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still in play https://invst.ly/6ekr3_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow jones so boring up so hard but down so swift and easy......if sell off....what for_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be another Enron - cooking the books._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi everybody. I've never posted on the BTC forum before, but I'd love to get your thoughts on this inverse head and shoulders pattern I noticed. It's not perfectly textbook, but it's not bad imo. Target around  [OPTIMISTICVALUE] , long term play obviously. Especially if...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong strong resistance at pivot point today...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't be deceived by the smoke and mirrors, the announcement was a PROFIT WARNING._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black friday in the US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coming back no crash just cat news_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not buy. the level of risk is too high.  [PESSIMISTICVALUE]  soon maybe lower.from watching the stock every day we know why he said 420._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where to buy BTC?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  tgt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guessing, the stops have been broken by the margin calls have yet to kick in. From the short, we should be heading down further (at least to tomorrow intraday)._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India blocked bank a/c of Bitcoin exchanges. One more country moved against Bitcoin. Anonymity of fund transfer is making regulators around the world to take action._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The market is setting up for another dump. Timing is more important than the actual price although the next significant level is 24700 -  [OPTIMISTICVALUE] . We could see a reply of last year with a big drop and the end/beginning of Feb. No matter the case as we approac...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come on people start to put down money for the model Y !! ready in 2070 !! you can wait!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.bitcoin.com/israeli-supreme-court-forbids-bank-denying-service-bitcoin-exchange/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">below 23k will bring smile on my face_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is a reason why we have a Christmas rally every year. it's because the shorters close their positions. but they will be back in January to short tesla and then it will fall_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys anyone of you know EXRN ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy at 245xx TP 2500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrational exuberance about his upcoming pickup truck.  There is no way American Hillbillies are going to fork out 150.000 for an electric pickup truck with a 300 mile range...less if it has to haul something.. . His semi-idea has already failed._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hahahah 25 k ez...hahahahahhaha...santa and bush bonanza ... 26k ez_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi friends any update for Today ??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy 12800 sell 12400 or les_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They want our blood and money. They dont care about fundamentels and companies report._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 1 week Chart looks like a downward staircase......TSLA is taking the stairs to h.ll._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hr chart will make an inside bar.  Below 6221 will be bearish break above 6273 bullish break.  6294 remains a key resistance for me to get over if 4hr chart breaks bulls._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just two stocks contributing to 80% of index today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I have said since  [OPTIMISTICVALUE] . Sell the bubble. But now it might bounce a bit. But my longer term target is still 150_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k by monday. Crystal ball says so._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-400 approaching soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla sold only 6500 cars in January according to Electrek.  Anybody knows why such a low number?  I am not sure it's all related to expiration of the incentives?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have this now .._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ou y eople p re a osers l._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was just going to say if it breaks  [PESSIMISTICVALUE] . but WTI beat me to it. I just looked at the charts and did some maths. I don't think it will in the Next Week at least unless there is some bad news coming out but if it does like WTI said, watch out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For those who want to buy. :) https://www.investing.com/news/economy-news/goldman-sachs-sees-economy-stregthening-in- [PESSIMISTICVALUE] -warns-about-crypto-credit-1048597_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnd this trade war allready this hurts everyone in the us and globally_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 cars a week woah_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell100%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time to fade it back to earth_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC, now Pentagon ... OMG ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tone Vays just said this mornig what would you do if btc goes up to 100k or down to  [PESSIMISTICVALUE] $ this year. Lets just decide alltogether are we dumping it or pumping? :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rate today and only two hikes this year. Dow should make up yesterday's drop and then some_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today  [PESSIMISTICVALUE]  witch_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today we have even the second upward signal, which indicates growth to daily EMA182,  [PESSIMISTICVALUE] , that is also correspond to weekly M/KC (EMA20) and weekly M/BB (SMA20) ~7700-7750. But I am alarmed by overheated 1H, 4H, 5H - with a projection to ~7000-7100. When I...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trading in dow and Nasdaq is like playing blue whale only one way out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang, according to my calculations for free cash flow, Tesla should be trading around $ [PESSIMISTICVALUE] -200 total!  It's way overpriced.  Additionally Musk's margin loan for  $13.4 million is due and he will liquidate!  Do not buy here yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be ready for  [OPTIMISTICVALUE] $_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still collaspse to  [PESSIMISTICVALUE]   within 2 weeks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market go down and tesla hold. So this is a buy signal_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now , watch it how i sell it :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owesome market_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enron Musk is more fit for a startup CEO. He should just work on his Boring company instead._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ [PESSIMISTICVALUE] ...$6000...$2376_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scalper why so many people critizing you？lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is it going now ?? Please advise_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold or sell?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fed bond buying doing nothing to prop up DOW._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/amp/s/www.slashgear.com/tesla-model-y-first-ride-the-new-and-the-familiar-15569840/amp/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro-view chart. Trying to find a model. https://invst.ly/7tucz_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bears618 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral ready to kick in at $ [PESSIMISTICVALUE] .tesla. Need more cash for margin call on debt.this is why they try to keep the stock at 300 but with this market will be hard._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long tp 4400_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.bit-globalinvest.com i invested 1btc and they double it within 24 hours. this is the best bitcoin mining._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i thinkk tomorrow  will go down but not too much_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..back to the norm_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damn us stock, pls recover soon, im on bad position_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the more batteries made the more service contracts sold the more potential this company has. The future of cars is with this company and a few Chinese companies. Have fun watching this stock go up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below  [PESSIMISTICVALUE] .5k the game is over. The other greater foos will take over your sells._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is unreal and risky...I'm out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This site censors if you try telling the truth.  Media manipulation.  Have a look where the debt is trading.  This company has Zero Market value._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC anthem.... nnhttps://www.youtube.com/watch?v=9vn5TKRwYfY_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My guess for today is that the dow will close the gap at  [OPTIMISTICVALUE] ... lets  wait and see!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">below 245 on gigantic bid and volume. there could be more to come._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin is great_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not Buy, protential fallout to  [PESSIMISTICVALUE]  this week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC will push Musk against the wall. No doubt about it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they lost another  [PESSIMISTICVALUE] $ in an eye blink_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday Long - close above  [OPTIMISTICVALUE] . Short - close below 24570_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell 265 - TP  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy bitcoin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major correction started_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla will be dominating EV industries at least for a while. Bought Tsla at  [PESSIMISTICVALUE] -265 when it fell last year and still holding 95 shares. Will keep them until I see real competition coming out from other car makers. Good luck everyone !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remember that short squeeze i was talking about a few days ago? it approacheth_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need a lower low here to absolutely confirm the skyfall trend...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last week model 3 production was off for 6 days now the production is in line ?! How much money pay Tesla to this people to come up with this b.s_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC is Going All The Way Up No Limit Now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target  [OPTIMISTICVALUE]  is near for long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teslas market cap from 60b to 45b in 3 days. Elon is in trouble_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy bitcoin every dips, sky rocket is coming to 7.500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommorow it will go down ..today only 100 I guess_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The future is dark for oil and Tesla shorts. The level-headed ones know that, and that is why you've seen so much negative press on Tesla. They are trying to push Tesla below the current supporting level, possibly making the last squeeze before the market ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.800_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock HUM will out perform the overall Market!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy TSLA . great opportunity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom shorters taking shots to the ribs ouch.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this rate it's going, Dow would definitely fall below 24k today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will hit $ [OPTIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This market it screaming to everyone to get out. And, it has given everyone enough time to get out. If you haven't listened , you have no one but yourself to blame._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicopter money coming this year_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Í Think Tesla will go down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  Jan 3751 3343-4158 3626 -3.3% Feb 3626 2928-3908 3652 -2.6% Mar 3652 3172-3652 3411 -9.1% Apr 3411 2664-3411 2865 -23.6% May 2865 2551-2935 2743 -26.9% Jun 2743 2405-2767 2586 -31.1% Jul 2586 2185-2586 2349 -37.4% Aug 2349 2349-2916 2725 -27.4% Sep 27...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone is scared here_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the Musk train wreck continues on, now with the brakes permanently deactivated.. . . "Securities and Exchange Commission officials were understandably taken aback on Thursday morning when Tesla’s board — and its chairman, Elon Musk — abruptly pulled ou...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys check out rdd and nyc coins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now up signal SL 24285_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more stock offer at $ [PESSIMISTICVALUE] !!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geez good morning... didn't know we were up to biblical proportions_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bears are getting ready_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla is going to test the resistance of  [OPTIMISTICVALUE]  on Monday. yay._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letzt go back to  [PESSIMISTICVALUE]  and then all the way up for good_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book profits in buy call around 25830_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock is now being manipulated by the billionaire boys club!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather, Goldfajn noted that he prefers to think of them (bitcoin and altcoins) as “crypto-assets” rather than “cryptocurrencies.” VERY VERY VERY TRUE!! BTC is like CRYPTO GOLD._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnbc.com/2018/04/11/tariffs-china-will-fight-back-if-us-escalates-trade-spat.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying at opening might be a good idea for daily traders!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosball I hope you shorted yesterday_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy on rumor sell on fact. Welcome to tariff issue_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">during a spike_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation is good for crypto. SEC is good news. The world to follow suit imo. Who roamed the land of wild west crypto will be riding new horse from the machines. The big money will come.  [PESSIMISTICVALUE]  Trillion EOY  [PESSIMISTICVALUE] 018_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Target  [PESSIMISTICVALUE]  in very short term..... 3 year target 18000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy FB Buy AMZN Buy NFLX. Sell aapl and TSLA_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© ★ I want more coins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New target  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This stock is under control not to many share to short .they do what they want.even if the company is broke and without cash they are keeping the stock up.12 billions in debt to big to fail. But at one point will collapse._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onother boring market to traid . Anyway I wouldn't be long on cryptos. When this hits weekly  [PESSIMISTICVALUE]  MA I'll think about buying btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmon later it will bounce back buy the dips is the best strategy_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chart for tesla is horrible get ready for the $ [PESSIMISTICVALUE]  support!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still some shorts left to squeeze, this bull run is sponsored by the fellow bears._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">such a strong trend does not change by magic and less by traders :v_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESLA WILL BE MAKING BIG BIG PROFIT VERY VERY SOON!!!! I RECOMMEND EVERYONE BUY BUY BUY!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not the pro-btc regular kind of guy. I think it's rather slow and outgrown by other cryptos, still I like the idea of it as a storage of value. But you guys who come here everyday to tell ppl that cryptos are dead and that btc is going to 0$are serious...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you think it'll open green and continue up on Monday?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon is in deep trouble now and no Model X, Y or Z will save him!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be able to buy much lower  [PESSIMISTICVALUE]  months later. I placed buy order @ [PESSIMISTICVALUE] k._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micron: My Top Pick For 2019 . https://seekingalpha.com/article/4218178-micron-top-pick-2019_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting that all the credit ratings agencies consider Tesla debt as "junk." Tesla is rated B3 by Moody's. Moody's assigns its B3 rating for “obligations considered speculative and subject to high credit risk.” Entities that receive this rating may be e...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its looking like Bitcoin is starting to use its legs, I would love it to finish the weekend around.   [OPTIMISTICVALUE]  to 13800 to confirm a bull trend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are mrkts open Monday?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time to buy some_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very soon one of this small price drops is going to trigger a major sell, witch will then trigger more major sell. Before you know it, boom ...end of crypto._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell on rise upto 24500 SL today high target 24000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am buying at $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was wrong._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Dow is marching ahead to close the loss yesterday_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think anything under  [OPTIMISTICVALUE] $ is a very good price for long._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like everybody chooses to ignore solid TA as provided by Crypto George. Expect bearish pressure to continue but I see the next few hours to again show a slow sideways grind within the 1HR BB -  [PESSIMISTICVALUE] .5-11.5K. Too risky to scalp so play safe. The stochast...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy the dip and make money this the easiest and consistent way in this crazy market. why do you need to analyze too much ? just go with the flow and trail stoploss._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Jesus ... Is $ [PESSIMISTICVALUE]  ur next stop, #Tesla ? *joytears #eyesrolling C0425'09_$247.63__x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It follows this pattern as planned._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing at 435!!! Single handedly pushing the index_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anyone just listen to Elon on the call?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so all the pro whales have left the boat. but still this thing can go to  [PESSIMISTICVALUE]  k and come back. people are heavily short on this one. major short squeeze is due any moment. watch out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the top will in the high 28000s - mid 29000s in beginning of July.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today any news up or down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think going back to FIAT even temporarily over the next  [PESSIMISTICVALUE] -15 days is very tricky and should be use only by very Intuitive Traders. The key focus in my opinion is to try to Guess which coins will benefit more from the coming Surge of March._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing day everybody sell off, which mean we can buy dip, buy any dip make huge money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now imagine US and China trade deal now?  what do you think Trump will sign?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24600 more possible ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They produced 2.071 Model 3 cars last week. Watch the CBS interview from Friday. https://t.co/9emY7HCcoM And paying minimum wage for “interns” they abuse isn’t exactly scalable._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did anyone grab wand at  [PESSIMISTICVALUE]  cents? I do think its run is starting._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bull party is over for next several months..see ya’ll at 19.5K ;-)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all be ready when market opens...its a very interesting day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit card defaults on the rise around the world because of bitcoin crash._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 points down from my sell price_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this one really crashed me_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its just a theory but goes like this: Exactly when first futures were anounced they started to pump bitcoin like there is no tomorrow. Me, average Joe and his mom started to see some profit. After  [PESSIMISTICVALUE] .000 everyone expected market to colapse in a similar way...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There going to need more FLEXXX SEAL!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and please No more revenue arguments, you can make trillions in revenue and it does no good if you can't show a profit; a real profit, not less than a handful of profitable quarters which don't even cover your operating costs_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok now we got a serious fall and if we get  [PESSIMISTICVALUE]  we got a good oppertunity for a good long_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial day weekend no buggy light volume next week steady ride up to  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My "day trader's" 5 minute interval retracement.  I covered short a bit early (too many distractions), then didn't trust a long from $255.60.. . . . https://invst.ly/8xb8g_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone just poured 300M$ in BTC it wont stop here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What time is the announcement expected?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great news today regarding making batteries lighter and also holding more charge.  This would allow Panasonic to provide a lot longer lasting batteries to Tesla for next generation pickup and semi's_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this stage all the minor dumpers will be cleared out.. and then continue rising.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doooowwwwwn!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla bubble is bursting; hard facts getting in the way._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we please ban Kumar? Can't have an entire page of comments of just one annoying guy._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remember 25050 area to watch_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  by end of January_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seriously though, if this sideways trading lasts another couple of hours look for a lot of buys to come in around dawn EDT_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy and hold you wont be sorry.  [OPTIMISTICVALUE]  coming... Back to retrace 50..then break  [OPTIMISTICVALUE]  towards 161.8 fibo ext. Before 18 april we are near 25k.apple near 180 perhaps higher... Facebook fully recovered. Etc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forbes.com/sites/neilwinton/2019/03/21/tesla-model-3-european-sales-threaten-more-german-profits/#5d54b506664c_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are In a  [PESSIMISTICVALUE]  dollar range_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i think all this is due to  [OPTIMISTICVALUE]  which was 100 ema line..almost all global indexes bounced sharply from here....yesterdays dow close was exactly near to that...so this is good going ahead..trget 50 ema at 24900 area now may b..just view not call...if that ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Maggie!  What do you estimate US and European sales for this qtr?  I am getting close to 10k total.  What are we looking as far as losses?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  then after that i believe in uptrend_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like a classic 1000 point down day to me._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing... Tesla still has thousands of model 3's in their inventory.  I stopped at the Tesla store and they can deliver new car still in 2018.  Sales are definitely slowing._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scopeweekly.com/ [PESSIMISTICVALUE] /03/13/starbucks-expert-says-could-be-game-changer/ . Starbucks And Amazon Discuss Cryptocurrency: Expert Says Could Be Game Changer_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade deal optimism again I'm sick of it. we had in February now again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting patiently  [PESSIMISTICVALUE]  ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other 100 points today ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after all environmental damages China suffered and still suffering, it's 1-2-3 logic that TSLA sales in China to be sort of Chinese national interest. by 2050 TSLA to book profits above $1.5T only from their operations in China. mark this post._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSV is now neutral for me. I sold most and did very well. I am sidelines on everything atm holding ETH and LTC from  [PESSIMISTICVALUE] !!! ETH below 100 is a buy. ETH forks next month approx near the exchange downtime I posted. caution should be used during the downtime an...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm dreaming of a red Christmas.... with every Christmas card I writ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm starting to think that the Chinese government will steal the Shanghai gigafactory if it ever gets built._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes indeed looking for  [PESSIMISTICVALUE]  percent going down 50 percent is not smart bet_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August promises losses here_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like a rock in water. here we go._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like it’s going down all night_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution went well today,, now the crash can begin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down $10.50 after hours already. tomorrow will be even lower_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether (USDT) Gets Closer to Emptying Treasury with 100M Token Intervention - in the news tab. You know what that means? Get ready for another journey all the way down to 5K._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14000 in 2 year and 50000 in 4 year..... U have to change according to situation.... Otherwise you will miss golden opportunities like jokerFoxxxx....hahahaha.... Joker missed 1000s of opportunities from last 3 years.... Even if market falls, situation wil...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  still seems inevitable_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"leave your body shorts" "leave your body"...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a close correlation between high yield bond market (blue line)  and the Dow. If the high yield market stays low, the Dow cannot go up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this stock is worth nothing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the lows of February  [PESSIMISTICVALUE]  we are seeing higher lows and higher highs._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteast 400-500 point up. Any idea on cpi data_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im I have bear calls so goodluck for tomorrow :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started buying this.the more it falls the more I buy.after all my cost average is  [PESSIMISTICVALUE] $_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL DJI 26630 TGT 26530 / 26430 SL  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM,Mercedes,BMW,toyota can produce Better and cheaper electric cars than Tesla.but market to small yet. Tesla will vanish when this companies start building EVa._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did mention other day that creators of this and early investors they all cash out already when it was at peak last Dec...whats now left are merely bones...now most buy on dips bulls want to reflate back to 20k &amp;gt; 60K ..as they want to fulfill their dreams...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. it is a beautiful day... if your support level holds.  And it should.  Economy is doing fine._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okay, broke resistance, good. let's see if the pros will push it down further in the afternoon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same sort of pattern as on november  [PESSIMISTICVALUE] . After that price dropped 50 %._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will be negative by days end!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon to raise new funds, offering equity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont be surprised if it bounces right back UP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi everyone, is it a good idea to short market at this level, 26.6K?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know who credits this Seeking Alpha source? I feel they're strong against TSLA from all of their reports and such. What is every ones thought on their input?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll be doing my research and give out vague info. Just to ***** with some. Now where are my tamboree, salt crystals, incense and magic  [PESSIMISTICVALUE]  ball. Hahahaha._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy ,Buy Gold !!! Dow Jones  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sold at price 304. Lol. And it is strong up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how about do you think the game credit?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought dips in since 24.500 letting it ride to 28k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 USD next month_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask yourself one question . when this is 12k on Monday are you going to be a bull or still a bear and if so would you put your 12k in the pot . if you say i am going to wait till it is 6k before buying you probably shouldn't be here playing. if you say i b...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday Buy above  [OPTIMISTICVALUE] . Sell below 25276_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y WERE WARNED_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen market :(_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-:_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy time -_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A classic bull trap._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys ... no bear market but trying to make logic here. But I was thinking tradewar doubts and tension in G7 means stocks would go down as risk appetite decline and it is harder for companies to do business if fears materialize. What did I miss here ... DOW...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will need to raise 8 to 10 B_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See...price action is on work below 12300...tgt  [PESSIMISTICVALUE] .5- [PESSIMISTICVALUE] .6k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop more than 2k please_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is now official. Tesla sales are down -80% in April in Norway. Jaguar iPace sells  [OPTIMISTICVALUE]   cars, ten times more than Model S._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh oh, turns out that M Kumar has started the garbage talk again (t3r ror 1sts, gold forum). The lobotomy has failed Vic... That's too bad, i kind of started to like him. Report and downvote it is from now on._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone give us a Good fundamental answer for How these Sick high levels can be explained. And Who wants to own real stocks at these high ratios?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China cut tarriff on car import, tesla to the moon?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why green?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell at 23775_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems the longs disappeared from the forum ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My moto: Without higher high, continuation. Chart was made for fun and to ***some time at work. Dont take it seriously lol._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry guys very volatile not getting chance to post calls it going fast. a very good day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Long FB ( [PESSIMISTICVALUE] ) AMZN (2000) Oil (&amp;amp;4) and EURUSD (1.18) now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha Ching on my s&amp;amp;p; shorts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOW_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and a critical question is what the maker of electric cars will pay for that money?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to sell, sell, sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when I " invested" lol, I forgot about political risk...and the Fed, the Trump haters , and now the Maxine Waters threat._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead cat bounce at  [PESSIMISTICVALUE]  gonna buy some calls there. Anyways next time she attacks this 250-260 it will break it and go real down - I plan to short it next week most prob!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many Btc have you accumulated in this bear market? I have almost  [PESSIMISTICVALUE]  BTC between Btc and alts. 60% btc and 40% alts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesterday's DJIA close vs today is the most outstanding example I've seen of market manipulation in recent times. Fed, GS, Da Boyz all complicit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems we have ZERO demand on Model 3 side as I see... Musk lied again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ Raist Lin Hello brother, i hope that you are doing fine! Really useful info, thank you very much. I have an account in Etherdelta, i am going to sign up with Bibox also. Let's see if we can get some Black Friday prices. ;) Btw, have your re-indexed your ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25300 possible today steadily moving up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy how it´s still falling agains all the fundamentals!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still stuck 3600_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is going to go deep..imo_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysts at Wedbush on Thursday started coverage of Tesla Inc. TSLA, +2.78% stock at their equivalent of buy, saying the Silicon Valley car maker "has the most impressive product roadmap out of any technology/auto vendor around." The analysts, led by Dan I...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bulls have been rejected from 9700 five times already. You'd think they'd give it up already...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st support  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This month bankruptcy maybe next ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cant see any bull candle formations.... Just ranging with neg div on the rsi. ah well, been wrong plenty of times before!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required 2 more green spikes to hit the higher target. go up up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tesla sell-off is about to get ugly. People realise that it's running out of cash and the customer deposit Ponzi scheme no longer works!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well I am mad at myself that I didn't wait enough, looks like it's perfect spot to short atm_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump's approval rating is poor despite glowing views on the economy, a new poll says, and it could hurt the GOP in November. . https://www.cnbc.com/2018/09/10/low-trump-approval-rating-despite-strong-economy-could-hurt-gop.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you are afraid of Tesla dropping cause of elon and his tweets. just put your self in his shoes and really ask your self... could you really just ignore the obnoxious insults you've had sent to you. similar to the comments you see about how Tesla is ruin...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch out for fake airdrops website scams... https://www.youtube.com/watch?v=0xBibmvn1Jc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what do u think guys? more up or down?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait the $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2H TF did not receive a confirmation of upward signal. Therefore, I return to the initial model when I first have opened long at ~ [PESSIMISTICVALUE]  and have set a deep SL on daily EMA91; and now I also set SL there ~7400. If the fall continues - I will only increase my...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22800 &amp;amp;  [PESSIMISTICVALUE]  these two support zone before 22000. a dead bounce is coming near 22800 and if this is going to be happen then we can touch 23300 on upside. hope for best_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gang, this will be my last post here.  I decided not to buy Tesla.  Good luck and enjoy the ride!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we all now that buying interest is at his lowest and people pull up they nose for BTC right now, maybe with renewed intrest we see higher ground_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22k-38k-5k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market cap 53.96B .do the mystery chart..!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children short it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will hit 23860 shortly_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And other scenario very likely could happen is they could run the price close  [OPTIMISTICVALUE]  before earnings(may 01)and sell the ***out of it 2 or 3 days before earnings_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And people still mining this ******** hope it goes to 0 next year._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumping time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why would you short the biggest momentum name when there is already a record amount short the float??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good time to buy Bitcoin. Should test  [OPTIMISTICVALUE]  next._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling knife...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks to Maggie I did not bought Tesla Yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double bottom on the 15m chart. Come on BTC, lets get the rally back on track!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorted  [OPTIMISTICVALUE]  Tp 23560_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in January we will see the shorters come back and tesla is most likely to fall below  [PESSIMISTICVALUE]  and from there it will rise again just after their Q4 report_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who bought at  [PESSIMISTICVALUE]  and hit a market buy order when everyone was panic selling? Rolla Did! :-))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to hit resistance at this level (High 330ish).. This is where you short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">... [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The markets are on verge of collapse...sell into any strength_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting that Tesla bond prices collapsed yesterday; they didn't recover like the stock at all._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covered.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible housing data and index goes up. Bad news is good now because the fed i guess lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  not unreasonable in the next week. once old high is surpassed .. most shorts won't cover til then .. then bulls will make it impossible to buy the shares back_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rally just yet. Further correction is needed for healthy growth.  [PESSIMISTICVALUE] .3 is the key resistance I believe. After that we head to 12.500._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now more down Boeing recover but others not.if Boeing falls_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla/Musk is ghe bigest fake news!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just to say it once more. price is going down down down down down down and THERE IS NO WAY TO STOP IT! https://www.youtube.com/watch?v=K2ku1A5Ox8U_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I kept my long sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there was a comment below, way below. somebody asking about a company under 100 billion cap they can hold long, be it Tesla or other. I can think of a few but I figure I'd post the comment up further_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classic ; bitcoins back (eminem) .. https://www.youtube.com/watch?v=jq57BjBVq7o&amp;amp;index;= [PESSIMISTICVALUE] &amp;amp;list;=RDGZ0YMSLZjfQ_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  by or before end of the month... bulls be careful_x000D_
 </t>
   </si>
   <si>
@@ -112,263 +2964,155 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">drop you shares so I can buy it lol_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonna be wild ride during the conference. Could goveother way
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is it reports after makt close_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.000_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is insane...no clue!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla is giving less love every tick down!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dogs building the courage to drop its pants and head much lower. Bye bye [PESSIMISTIC VALUE] grand soon._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still ok not red,, its strong,, its the dow jones , the one way rocket to the moon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remember the Delorean? That’s what people will be saying in 20 years.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if the etf comes out wall street will take this way below 1.000 , and everyone wants this etf, crazy_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural gas Target achieved 234.buy from below average 167 .now booking full profit.near to 67₹/lot profit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The only reason Tsla of not having a falling knife for tesla. i s big boys do not let them . since they are so hungry. they will dump stock lever to lever.. . . They know what they are doing against a populist movement stock clearly._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next big spot is [PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now sell
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A que hora presenta el modelo SUV mañana Tesla?(Hora Española) Se puede ver en directo?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks constructive for the bulls_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor Nikkei getting hammered again and they don't get those last min 300 points swings at closing like the Dow does.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla will come up and down; at the end of the day, despite Elon Musk's terrible business practices, Tesla is a product-producing company that can produce profit.. . . The question is, how far can it fall in this channel? And when it finishes dropping, how...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..chop chop.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which looks like W wave, will created another high?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The market is not buying the ridiculous hype regarding Elon "P.T. Barnum" Musk's pay package._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy now, will happy later, dont short it, or you will cry with the rain_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and why does it suddenly go up? :p i will never understand this stock_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now is going to bull trend start_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long is secure
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worthless *******,wa all see that  is just a manic.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where is kuku hahahhaa every time a false and shameful prediction_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fidel mone: Buy NIO and forget TSLA garbage... Really? So instead investing in a company producing close to [PESSIMISTIC VALUE].000 cars and other products in 3 factories a year and 7.4bn revenue in first 6months, and 50bn market cap you suggest to invest in company with...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks like a nice clear inverted H/S, id say 11k fairly soon then destination [PESSIMISTIC VALUE] into the weekend._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme negative sentiment towards the Dow. And toward global equities, so I wonder if the opposite turns out near term another bounce back in prices.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gofundme.com/the-start-of-my-story-from-ro&amp;amp;rcid;=r01-153834173664-a05ddf042fd24ea7&amp;amp;pc;=em_co_campmgmt_m_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is going to crack through [PESSIMISTIC VALUE] bigly_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysts are missing the mark on shares of Apple and FANG, Cramer says. https://www.cnbc.com/2018/11/13/cramer-analysts-are-missing-the-mark-on-shares-of-apple-and-fang.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is this because of his p. Post. rod estimate on tweeter?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual currencies are commodities, U.S. judge rules reut.rs/2D76kgx_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to Bank today morning to ask borrowing my equity line, my agent asked me are you borrowing money to investment stock market, he said he has many customers borrow money to investment in the market, so how can this market easy pull back, so no concern...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla looks kinda too cheap here under $[OPTIMISTIC VALUE]. I may take a long position_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US: Arizona Senate Passes Bill To Allow Tax Payments In Bitcoin. . . . The Arizona Senate passed a bill on Feb. [PESSIMISTIC VALUE] to allow residents in the state to pay their taxes with cryptocurrencies, public records indicate.. . The Senate Bill 1091, which intends to e...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some of these doom and gloom comments are redicilously hilarious. i love how people spew anything even though they really know nothing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trying to buy. SL [PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] min chart flying. what happening guys?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would take a rest, stay out for the next drop.  Of course, I could be wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I seriously cannot comprehend the 10% drop in last 2 days. Prime example of people are gambling and not investing hence acting in herd mentality. 2K decrease in price is TSLA trying to be nice to its customers. After the 50% decline Federal tax cut, the RE...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i did some research about earning bitcoin on popular sites. Without investment and getting refferals, if you'd want to earn 1BTC you would have to work less than [PESSIMISTIC VALUE] days on one site. Considering you'd work around 1H daily, it's not a bad deal (not a good...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocket is right...High debt is actually a big contributor to this downfall and the fact interest rates will be forced to rise fast.... Of course we have the political  factor which I would say is at crises levels...NOT what the world likes to see..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will it break 255 support?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5H charts looks nice._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yup, the rally we just had, the bonds market didin’t buy it. Cash will be the king soon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very important to break $295 if we can do it $[OPTIMISTIC VALUE]-302 test is next!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can it get back up to 10k? Above seems stretching it.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month of May Not Kind To The Beast.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anyway we are already up lets see if we get to [OPTIMISTIC VALUE] thats a must  to build a rally_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loading some baggies_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dont trade charts.... only trade trump tweets.... thats the rule only nowdays
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulls are rejected again and again._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How will the post G-[PESSIMISTIC VALUE] crackdown take place? Immediate closure of all exchanges? Fines for traders? Orderly return of all funds at market rate?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back down to base camp..and further decline to camp reality..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second largest shareholder cut their position in half. What's going on - don't they want to be rich?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John, whats your TP on LTC? Also, is it a good time to use ETH as a parking garage for short-mid term? I have fiat sitting on an exchange, doing nothing so I was thinking on either LTC or ETH. BTC is too scary atm .._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straight up by pulling Boeing stock
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel like a kid on christmas eve_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was that a fallout between Vic and Gray yesterday? Something is different. If so it’s a great shame. Best trades were by following both, Vic was more the cautious guy reminding you to take care while Gray was more the risky one. A bit like mum and dad._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310..320 buy... 290..280..sell
+    <t xml:space="preserve">Failed or still has a chance ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy above 25370 in 30 minutes candle closing for 150-200 points... sl is todays low ... which is also the weekly support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am not tge only one who realized a steep fall of Tesla sales in April down 82% in Norway and -76% in Netherland. https://seekingalpha.com/article/4256243-teslas-model-3-sales-fall-82-percent-norway-76-percent-netherlands_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going up trend in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fear not everyone, the Fed will no longer require the banks to keep stress test money on reserve, so they can use that money to buy back their own stocks and everything will be fine. well for at least another six months before the Ponzi scheme has to find ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going down. Trendpicture is down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am holding all my capital as USDT in Binance,in order to convert to fiat I need to bring it to a local exchange everytime, where I have not many options other than LTC,BTC and BCH.and the price difference is huge ,moreover every time I jump from local ex...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one is hunting bulls only bears_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No solid company would let the past 5 trading days happen. Complete circus._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok bulls ypu know it’s temporary right ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see 24250 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see down to  [PESSIMISTICVALUE]  per share for Tesla_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thats what bulls have been saying since  [PESSIMISTICVALUE] 5k,  [PESSIMISTICVALUE] 2lk,  [PESSIMISTICVALUE] 0k, 9k, 8k, 7k, now 6666..GL bulls I wish you all the best  so that your dreams can come true to $50k, &amp;gt; $ [PESSIMISTICVALUE]  milllion (two Aventados S)...:):).  5555 (MC=95) 7/7/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8/ [PESSIMISTICVALUE] 8) &amp;gt; 4444 (MC=76) 7/24/ [PESSIMISTICVALUE] 8 (&amp;gt;7/ [PESSIMISTICVALUE] 8...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello guys, does anyone here use IG markets? Had an issue with platform on 5th feb 18, 20:10-20:20 Gmt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Year Olds Hand pinned by Falcon Wing Door Submitted by RCorsa on July 25, 2017_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its the time to breka 8600. Now or never, really guys_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the world economy will be the 6th and final one of Trump's bankruptcies._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coming Q will be extremely strong for Ford. expect more than 40 billion revenue._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's worst than in  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can see this is a joke right? I can smell Ponzi....history doesn't repeat but it rhymes. This is not going to end well for those holding on_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my bear case was that it touches 290 and falls, and bull case is that it its's 294 and retest 290 and takes off._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1% distance to re-entering downward channel. Pullback to 12.600 for support unlikely due to volume disapproval._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nytimes.com/interactive/2019/02/27/us/politics/cohen-testimony-trump-denials.html?action=click&amp;amp;module=Top%20Stories&amp;amp;pgtype=Homepage_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50 stock at best._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opened position @ [OPTIMISTICVALUE] . Target 6K. Believe me it will fall huge since it rallied without any correction and bottom confirmation. That's it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, hope and prayer._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the fiat money going to be reflected ? in Q1 or in Q2?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4H is at M/BB, and BB is toughly narrowing. Stil, above M/KC. EMA6,  [PESSIMISTICVALUE] , 12 all together. MACD down. https://invst.ly/7t [PESSIMISTICVALUE] ly_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its time to climb down into the weightless room where they keep Hal (the computer) and disconnect him before he brings down the ship_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a good news at least for few months. Might provide cash for the company_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anemic and red_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] ... was very supportive... accommodative... it feels like a fake invisible hand ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When will this short squeeze be what Elon promised?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9k coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23350 tg achieved at 2.45_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule#3 Don't listen to Lol its laughable!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riss see the volume_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy or sell?_x000D_
 </t>
   </si>
   <si>
@@ -376,907 +3120,563 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“Fearful when others are greedy and greedy when others are fearful.” -Warren Buffett_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lots of hopium. Don't get high on your own supply.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bounce incoming._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTC consolidates on a flat low volume (see OBV 5H/1H) between 8100-[OPTIMISTIC VALUE] while it is at the verge of completing a bullish pennant, upon successful the upside limit is awkwardly placed near 9240, and upon failure (below 8000), downside limit is 7239. With de...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's works wonderfully... Sell below 790...buy above 810.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yesterday they registered 4.793 new VINs. And today even 2,915 more. That's 27% of the total in these last 2 days. They really are ramping up the production it seems!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be fearful when people are greedy, be greedy when people are fearful_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have't heard from Man Kr today. Still buy the dip? Around 500 points drop from the highs within couple of days. The next couple of days would be interesting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphabet beats expectations and falls 4.5% today. The imminent drop for Tesla will be viscious._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am now long another 0.[PESSIMISTIC VALUE] BC @ 14800, so be ready to see market coming down....._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] by end of April 2018....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-earning rally, that’s not a good sign, sell today, your free jail pass, take it or live in regrets._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You ain't seen the special sauce. Simple as that!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Better than yesterday?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market will be opening in 1 hour 5 minutes or 65 minutes,. . in other words 3900 seconds._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The state of Wyoming has passed a law recognizing crypto as legal tender. The law takes effect on March 1st and all banks must be able to provide exchange from dollars to digital assets and vice versa within [PESSIMISTIC VALUE] after that. "Effectively putting cryptos on t...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think US market is now in bubble
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going more than 270 insha allah_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just wait my little brother_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRADE meaning Timely Rise And Down Everyday but Dow Rise everyday this is not Good things for market health
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Geneva motor show this year is all about EVs people are droling with those gorgeus concept EVs, them they will return home and buy a Tesla, cause Tesla sells cars not concepts that will never be on sale._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new [PESSIMISTIC VALUE] hr cup and handle? i know i know i love my cup and handle, would just like to witness it actually working lol_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biggest jump in history on no news...yea, i trust that
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today's volume is very low; they know somthing we don't?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This should show more details about the movement!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the latest tariffs just a proposal, haha.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMBER!!!!!!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOW come red news does not influence bitcoin price? . After all its   BTC/USD ._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] possible to attain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i believe a big green one_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@dimitrios - how's your fakelaki doing - just BTC?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOW for massive selling... buy the Vix
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">econonic   die, now equities only trigger shorter zzzz_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade simple. Short @ 8K. Long @ 1K. That's it._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigged up again and again
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record high for Tesla junk bonds!  Keep attention!  They will have to issue more shares soon!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good news is that in a couple of weeks I'll can by a videocard with a huge discount._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still contend we have open skies until [OPTIMISTIC VALUE].  I think the ATH will be sold off.  Double-top
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes,but not today ok._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accumulating fase_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here they come... The PPT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it will test to $[PESSIMISTIC VALUE] today_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what's Tom Lee sayin "?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wow, the mkt really thouggt there would be no rate increase it seems
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puts Puts Puts Puts_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good time to buy maybe?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telsa's borrowing costs just went up. How soon before Elon tells everyone to buy new shares for his big vision. "Robocars everywhere next year. Hurry, buy now!"_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same last module (Descending Triangle ) at 15m ..   https://invst.ly/[PESSIMISTIC VALUE]-tkr_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can anybody tell which time Dow will close ?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so quiet today no cheerleaders?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t worry guys. After the storm always comes the sun. Next month will be ours._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going short at 25.770. This is not going to end well !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's the most obvious short in a 10 year period..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom lee“In six of the last seven years, bitcoin posted its annual low within the first [PESSIMISTIC VALUE] days, before March. In 2018, bitcoin was down 50 percent by February sixth (36 days), which falls within that time frame. In other words, as we enter March, this is a...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do not miss recommendation here ( buy at [PESSIMISTIC VALUE]) ,,,, to someone's did a dislike
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't worry I am here - I am buying your shorts_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heres a little tip Tokyo market closes from [PESSIMISTIC VALUE].30am to 12.30pm. (noon now) To go along with that even though US markets are closed it is still has the highest vol. over Tokyo most all the time, I can't remember the last time Tokyo even came close...._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks so artificial...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS places tsla at a $[PESSIMISTIC VALUE] price target.  I think it will drop way further actually as they are not going private, this means Elon will be replaced, that will hurt there strongest driver.  The credibility is going to be gone and the germans are going to add ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you think that this dip is related with goldman sachs? Everything happened in half an hour. Is everybody listening what goldman says and decide to sell bitcoin in the same half an hour. I thing this is weird._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 10 march I post my view short at 25420 with sL [OPTIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easy [OPTIMISTIC VALUE]+_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red deep dive coming_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they took out most of their money to make market looks like is going to crash, then slowly reinvest, whoever sell at low and looking to enter again going to take the *** invest with emotion never be good.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">everybody is wrong only Musk is right!  What arrogance?  Tesla deserves this kind of CEO to go down with._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">please go down so it would come up, vice versa_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short at 644
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I d like the shorts to be a little more humble on this forum..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The reason why it will fail if it falls below $[PESSIMISTIC VALUE] is because then $6000 is guaranteed. All buyers who bought the dip on the lows of this year will panic and sell all their coins. It cannot fail or Whales will lose power._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] days are gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have no positions open but hey I hope they will be good. I love Elon :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, My friends and I graduated from university in field of engineering some years ago. So far we have not been successful to achieve a good job or earn enough salary that we can rely on. During these years we did many different work, however many of the...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market is doing badly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the ugliest and most obvious attack I have seen on a stock._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep [PESSIMISTIC VALUE], 2018 11:55AM ET. https://invst.ly/8i4ha  .Not much changed from the count yesterday and was expecting non impulsive subwave chop. I still see it possibly finishing subwave 5 in 3. Unless it breaks to the upside soon, invalidating this count and goe...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War not consider war then what is that????surely one loser... .........
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla cuts prices of cars in China with the removal of tariffs on imported cars. Good news for tsla one of the best performing stocks of the year._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">game of chicken is ON_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just pray to god it will not be like the dirty 3O's
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the article about the Tesla shortsellers manipulators is the WHOLE TRUTH.. You nailed it, Crystalball.. . . If many of the 'experts' who talk about it were a bit smart and less ignorants they would see that what happens with Tesla and his CEO is what alway...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5777 almost here_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trump is doing everything possible to ***his economy still Dow hit [PESSIMISTIC VALUE]$ , does Dow worth [PESSIMISTIC VALUE]$ ?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geting in @250 this is oversold, some short start covering_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mea culpa, verge is a joke_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A little rebound , before next freefall ...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am confused. I had one more doubt if u see bitcoin chart it shows -[PESSIMISTIC VALUE], -5000 i dont undertand why its there. Does it can go minus too._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love the smell of napalm in the morning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just keeps going and going_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still holding 9.26 BTC @ 10.800. See ya'll at 20K soon._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was nice to see 25.000 again and share memories of bull markets gone by, but welcome to Groundhog Day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy NIO ! 11380 cars in 3 months and they just start!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another round of bounce trying traps no Brain to buy in._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what r u up to Scalper?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would be amazing to buy while the NYSE is fully-closed.. . That said, I'm hoping it'll rise before the end of the day._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMAO Why I disregard anything from bloomberg about crypto LMAO [PESSIMISTIC VALUE] week delayed pump for bitcoin from E-corp token https://www.bloomberg.com/news/articles/20[PESSIMISTIC VALUE]9-02-[PESSIMISTIC VALUE]9/bitcoin-gets-delayed-boost-from-jpmorgan-s-embrace-of-crypto?utm_medium=social&amp;amp;utm;_content=c...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For bears to take control, again ...wait until 19th April. That's the Astro signal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomorrow NIO explosion $15. investors are selling tesla and buy nio_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now this is a good match. naija with hrvatska_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200+ Dow Points in 15 minutes on no news a pitiful volume! Now what could be causing this mad dash to shove money down the markets throat in such a short period of time?  Could it be that the markets are not very liquid so small amounts of buying and selli...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groundhog day, 2009   ---&amp;gt;         https://www.greencarreports.com/news/1021667_elon-musk-tesla-to-become-profitable-next-month-dispells-eberhard-lawsuit-claims_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://invst.ly/[PESSIMISTIC VALUE]-f4a .  divergencia_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can hold this level ? i don't think so....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naat, the price will go up in sky. wait for it !_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTC holding very strong here_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome all investors here we continue 23700 is down target will post some thoughts through journalists if they are interested. Thanks
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now a lot of shor sellers has been cleaned up, serious things can begin for tesla_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good Morning from London, if I recall BTC had a slow start same time last year. Big institution are impatient and will jump in soon...20k end of January! bull trend intact.GL_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now its W4 / C , we still got W5 downward and it must violate the previous bottom @ [PESSIMISTIC VALUE]. . My recommendation : Hunt to open short . . Good luck For all
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait the debt payments start this year! Only 9 billion to repay in 3 years!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I won't use finexs garbage chart right now, but on Gdax 6545 will be a tougher nut to crack._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">been waiting 3 years for this. since july 2015
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next resistance 325?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] month lose in [PESSIMISTIC VALUE]0 hour ........ wow mam looks soo great_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy the freaking thing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green day_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of February BTC $[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market exploding, my positions still red.....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Tesla coming automatic joint roller_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The price moved a step higher with a session top at 6.832.9 but started pulling back again on a 5H Engulfing Bearish candle. This simply restored the neutral bias on 5H (RSI = 49.160, Williams = -50.913, Highs/Lows = 0.000) as the Channel Up is being rejec...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market is crazy today, buy signal do not be fear.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be greedy when others are fearful, we all know the future is electric_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how about today?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There's no more bulls and bears there's Robobull and Robobear.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headwinds: tax credit phaseout , cheap energy prices, cutting model3 price.....ur done_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is anyone actually making  decent money with bitcoin day trading. ? [PESSIMISTIC VALUE] % of retail forex  trader lose but i think for crypototraders it must be 99 % because the market is rigged and manipulated and  sudden . spikes out of nowhere are guranteed to hit your ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so today dow is going down or going up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE]$ I guess?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what will happen if these levels are protected? i see shorts at historical levels :P Parabolic black negative moon! Bear party lol. But at some point, sooner or later, these guys will have to buy the coins back, right?:P Looks like [PESSIMISTIC VALUE] is a bit of a hard ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks very ugly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Endocyte, I work in the field..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE]/[PESSIMISTIC VALUE] risk-on risk-off, DXY is testing and above 97.275 and sp[PESSIMISTIC VALUE]0 is testing and above 2670. If both continue up or down BTC stays in range and the last hr of sweet spot should give trader sentiment as to how the day may play out. USD/MXN down and oil main...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is the DOW doing this, even the S&amp;amp;P is down. forming 2 green hammers in daily. Looking bullish - 26.467 next?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the next 18 months, the share price will certainly be cut in half.. During the next 36 months, Tesla will likely be proven to have engaged in some VERY questionable accounting practices (if not outright fraud). . . . The cult of Elon is more impress...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here someone sad the 10k is impossible_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everybody buy today to make huge money?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some TSLAQ guy found that Elon bought ships and has been hiding Teslas in the middle of the ocean!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getting serious!!! very solid_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Intra-day Buy above 25989 Target 26024. Sell below 25944 Target 25909. Bullish above 26027. Bearish below 25904
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There it started another leg down!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we could see a W chat pattern if [PESSIMISTIC VALUE]-8300 area bounces hard._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lol good lucky :D
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today people got nearly 10% richer in tesla stocks...very big swings_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wow EOS down [PESSIMISTIC VALUE]% someone got burn... Bad ooooooo_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apparently already this bottomed out, the session has not lowered it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blow Up_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.000-7,000 in play_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~300 DOW points in 30 minutes? This is not a market! There is obviously not much liquidity when a "market" can ramp 300 points in 30 minutes on no news.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golman price target of $[PESSIMISTIC VALUE], "sell" rating on Tesla stock_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's clear that it has broken the major trendline on the weekly. Should be all up from here._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 yr 2.878 lol
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be honest I believe in Tesla if they can achieve profitability with the 35.000 dollar car. But I don't understand the current valuation of the company until they prove that they can sustain production at the cost needed to make profit at that sales pric...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cant go up to 3900_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia will be up tonight, then Europe then the US. The cycle will start to the upside. The buy buttons have been triggered and the adjustments in the algos have been made.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is tesla falling?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't know if you are trading BTC/IOTA pair but here is the catch (IOTA/BTC Tgt=0.[PESSIMISTIC VALUE]) with a strong momentum (D RSI=55.3; STOCHRSI=100; ADX=38; CCI=121; UO=57) and assuming IOTA gains more than BTC i.e. it tests 2.0-2.15 where you can take profit as ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need new entries Scalper please, i got hit a bit with the choppy action, need to make it up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla cars have revolutionized the industry taking one bold towards greener energy. The company has resurrected back the EVs. Spent a ton to develop EV charging network. Hopefully, this will help as more and more EVs get added to the market. There will be ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..I hope everyone knows what’s about to happen again..if not shame on you really deserve to lose money again..look down_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC or 1-23 that is the question
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elon musk is great man, Tesla Is great company. But economics is economic, business is business. Tesla as a company looking at the Profits it has to be another 3 years before it make money. Why the valuation now?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let’s hope it does not reach [PESSIMISTIC VALUE] k too quick as I don’t feel like selling my precious BTC and I promise myself I will at [PESSIMISTIC VALUE]. I’m stressed now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys, Go through volumes on positive days. They are far lesser than down volumes. This uptrend will not last with lower volume. Make sure to keep SL tight with long trades and be patient with short trades if they are in negative.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESLA may be cooking the books big time. is this why all the top accountants are leaving...? https://www.zerohedge.com/news/2018-04- 16/analyst-spots-14-billion-hole-teslas-balance-sheet and...  http://www.truthinourtime.com/forum/showthread.php?t=88066_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money moving to btc i expect btc will bleed alts_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selling
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I just want to say 300 :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shalom. Message for those who are seeking correlation between bitcoin and other factors. The Israeli lunar spacecraft Beresheet is moving towards the Moon, and it has already “passed” more than 37thousand km. Total distance to the Moon is 384thousand km, a...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see they have called the FED officials to come out of the wood work with their statements and try to establish a FED put on the market.  They know it is going to free fall soon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaking: Tesla forgot to get Deepak's password when he left and now they can't release the earnings. 40 minute late and counting..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me say you won’t see the same year as last year, cautious money now at play, and that will be reflected in the value overtime. The craze is over time to go back to earth_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two trade square up... Short entry at 23971 and 23921....square up at 23921 and 23851. No position now
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todays target $[OPTIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTC rebounded from the fresh low [PESSIMISTIC VALUE], and is gaining momentum on daily (RSI=26.9; FT=positive). However, it has to face the immediate resistance at EMA9 on daily or 4200 rounded-off. Once that is broken, then I will open a long as indicated earlier. Other...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm making money tons yessssss
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pikachu the price is 276 what will you do know..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Investors take biggest cash position in a decade despite market rally" DXY made no time getting back to the #s I mention as critical [PESSIMISTIC VALUE].860/[PESSIMISTIC VALUE].980 So much writing on the wall however until the shift nothing is concrete.... I was certain someone would even...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] minus 3000 = 22810 may...Aug.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boris, I don't want to influence you regarding Tesla but I 'd say Maggie is correct here the bottom could come around $[PESSIMISTIC VALUE].  I am not sure it will bounce from there.  Things are not going good here and plus SEC investigating Musk, and this time he will not...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume is too much low. It's like before the storm._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is special lubricant made by Trum magic factory.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Idea what triggered the rally today?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goldman Sachs Admits Bitcoin is Real Money, Cites Use Cases in Developing World . . . White shoe investment bank Goldman Sachs has admitted that Bitcoin and other digital currencies could succeed as real money in developing economies. Goldman strategists w...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy news today, tomorrow can either go up or down, pass the neckline it will drop
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no more tweets for musk they took the phone away!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just don't count on it being as fast as you are hoping.... ;)  Some exchanges do have the buying power to put some real hurt on those misplaced short trades.... They likely won't leave it behind and come after it lmao_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to same old news ...USA government shutdown that mean market will not fall even last time made Government shutdown history still dow manage in green buy DOW fearless
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good earnings!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuel looks like it may be about to off its 3kz. either that or some pump and dump group is rag dolling it. im holding from [PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merry christmas.. red red red.. red like trump’s face... many more reds next year.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perhaps under [PESSIMISTIC VALUE] with this panic_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unless btc is 6k no chance to go up for sure !_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It applies to stocks not idexs .Usually 10% would stop major blue chips and usually they only stop the trading for half hr..This crash has to do with Trump and memo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopefully today will be the largest red candle ever... I'm so short.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bears turn is done for now, short covering_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How about paying off some of the debt USA? 22 trillion and counting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so sad to hope that the quarter is not that bad so maybe go up $5 .ithink this quarter and next and next are horrible_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Went Long USD [PESSIMISTIC VALUE]- USD 7045. Shorted USD 7038- TP 6825_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The govt. is in a partial shut down,Trump is not happy with the fed chairman, other economic indicators are the same,then why this rally?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today [OPTIMISTIC VALUE] confirm.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I went all in on RIOT Blockchain_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back down yo-yo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There you go._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Reality not hope" JFI... spot on but short of reality_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] to 29000 by July.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">looks like it will get higher if the FBI story is debunked and more positive news comes from elon musk. Tesla will be a volatile stock until we have some out of the red quaters , but I think there will be forces push the stock down so maybe these period wi...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ready for first [OPTIMISTIC VALUE] soon!!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&amp;gt; [PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im hoping ETH to take over_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do wonder if all this jibe is collated, quantified and added to the price action.... ;)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think they trying to left up the price before the next earnings date; its a deja vu._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short Dow 30 with tgt [PESSIMISTIC VALUE] for tmro
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bull run to $[OPTIMISTIC VALUE].59 by may 21st_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitcoin is currently probing downtrend resistance that formed mid-December- coinciding with the ATH.  The technical indicators that I use are bullish/neutral imo.  Most notably, the second fractal where price attempted to push significantly lower was weak ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Trump. Very chaotic and still much too high.. Like with cocain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla acquires ultracapacitor and battery manufacturer for over $[PESSIMISTIC VALUE] million. . https://electrek.co/2019/02/04/tesla-acquires-ultracapacitor-battery-manufacturer/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at resistance soon_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25250
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy for rebound up to 364_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A little [PESSIMISTIC VALUE] usd drop, market seems. It to care about the bithumb hack. Relax_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silly talk
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good point Jonathan S. Likely to need both cash AND increase production rate. They keep missing their promise to increase production to meet demand and do not seem to be able to raise more debt. Forced conversion of debt would bode well._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I guess if your exchange covers $[PESSIMISTIC VALUE] million in shorts rekt , just to keep the Wash-Trade-FOMO-Marketing going... carry on Bitmex &amp;amp; Company_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fake americans
+    <t xml:space="preserve">the jesus coin prayer is appropriate about now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Buy call roaring_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys. Musk made 851 million dollars in the past hour and a half by the stock increase. If this isnt true he is done with Fraud allegations. Logic says it is true and stock is going to  [OPTIMISTICVALUE] . PPL are all over option calls!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian has no substantial amount in bitcoin prob less than  [PESSIMISTICVALUE] % of the total available market._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the plunge protection team has arrived lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMO Tesla should bounce to  [OPTIMISTICVALUE]  or higher. The next inflection point for the bears should come in the week before the 5/2 earnings report. We could see some downside there._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount buys if you can get them https://invst.ly/9r4rf.... Those Asia devils are a tricky bunch looking to trap a bunch of shorts before the after lunch crowd..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great time to buy tommarow will go up 250 to 400 points_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your late to the party milton_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dont panic nothing bad will retest  [OPTIMISTICVALUE]  again_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Exit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is why I like TSLA... Smart people with a sense of humor: https://twitter.com/elonmusk/status/1104462447652438016_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bullish implications from this are quite wonderful. Http://tradingview.com/x/ugzF7NWk_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey' Market makers...Listen Up....I Think you have Transmission Problems..You better Get AAMCOXXX_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t blame Elon for reaching for the ring with electric cars. But he has overreached in financial and business model and is suffering consequences thereof...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy bitcoin and hold_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like I told everyone...you need to be watching the markets in NANO Seconds! very very Dangerous Right Now!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just don't know why it is up 10% for 2 days. Tesla hasn't made a solid profit yet, but it owes a lot of debts more and more._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't understand, no news, nobody talk about it but bch is best performing coin in this train, just go and go in a shadow and silence..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nxt stop 23.900_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What wrong with this stock? Why goes down?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's all talk about short. I think Crypto has some smart bots in this forum. Whenever everyone is talking positive, it reacts in the other way_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25580 is the level to watch. Weekly close below indicate March low_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You think this company has integrity? selling cars without break test! This people are criminals risking people life only to make 5000 junk cars.sell now before is to late_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea Will Not Ban Cryptocurrency Trading https://ripplenews.tech/ [PESSIMISTICVALUE] /01/31/south-korea-will-not-ban-cryptocurrency-trading/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/9dccj_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target  [PESSIMISTICVALUE]  usd for tesla_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed. Tp  [PESSIMISTICVALUE] ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be heading to a lower low from a lower high! Just saying..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon promises LEVEL 5 autonomy in one year, with LIDAR. No demo. no insights. when will the con stop lying?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when this all ends, people will start asking questions. where did all this billions of dollars go. who benefited the most from this pyramid game._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06,242 Millions USD We Fiis Investment Inc just Invest In DOW Market , next 2.06,242 millions USD in DOW market now next up 500 points from here on 26500 around Dubai Investment Inc will be Invest ._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next support $ [PESSIMISTICVALUE] ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um, im still seeing positive divergence on the four hour RSI and that looks alot like an inverted H/S on the 6hr._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overstretched p/e stock valuations , significant potential for large correction on slightest bit of unexpected market news... good price point for building shorts_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theese shorts are insane. Market's doing well while Tesla is falling so deep, and the reason isn't in news or any events. Hardly rising price week by week can be crashed in a day. **** What's the bottom?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respect for Gun Law protests,_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more free market. Ppt for the western world is a form of KGB on the east folks. Good luck._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just wait til they need to raise more capital for the 920 million debt payment in march_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its crossed 7980 it move upwards if touch 7945 it  move downwards let see the trend,,..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 points down from my sell price_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the BOD is a circus_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray you are somethin else bro. big old + [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not looking good_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short at close tomorrow bad news every day yet it goes up all end of quarter window dressing bottom falls out monday mark this post_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does anyone know how to buy Cardano by any chance?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going down first..Before going bullish again.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investors are finally seeing Tesla's smoke-and-mirror shenanigans. it doesn't work anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will the transfer be faster if I do it through GDAX rather than directly from coinbase._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximus the merciful ,,, keep it above 24k tonight._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is insane , first it jumps up 15% then down 15% last week, friday down 7% and now down almost 5%. That means tesla is down 27%in two weeks._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More bleeding have to redraw black line to make draw, tom will be clear how to draw it .._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breakdown_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM and Google have way more advanced autonomous driving technology than Tesla. They are worried about lawsuits and insurances if any of their cars get involved in fatal accidents. That's what it means to be called "fully autonomous driving"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/96p0z  waiting for this from yesterday!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell 499_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well this company, not just it did not earn a dime, it loosing money for so long time_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a tease ;-)))) nnnnhttps://www.newsbtc.com/ [PESSIMISTICVALUE] /07/24/sec-postpones-five-bitcoin-etf-proposal-decisions-until-september/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is this possible. If this is not manipulation in its best then what else_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my view, Tesla will break soon the barrière of $ [OPTIMISTICVALUE] -$380 towards $400.. . . The past years, Tesla had a lot of issues, which most of them are solved.. . . Knowing about Elon Musk who still will buy $20 million of shares in the coming days, weeks, will m...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like whales are done spawning and need to feed_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowing that it's gonna be red EOD, short it when it's green and get yourself some nice christmas presents_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe go private a 2 40 no 4 20 or 1 40_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok I am tired of  [PESSIMISTICVALUE] .1K nonsense. Time to go up up and more up! 12-13-15-20-50-100K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenues at graphics chipmaker Nvidia surged by 66 per cent in its first quarter to $3.2bn, surpassing analysts’ forecasts thanks to strong growth from customers in both data centres and video gamers.. https://www.ft.com/content/0c20ceec-5489-11e8-b24e-cad...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may be out there but could Tesla have an imminent SEC investigation.  Announcing going private at a known/ floated price may quell downside.   Speculation on my part._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it can not be ruled out that there will be a break out north on the Bfinex chart and south on the other chart like Gdax lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell sell sell_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversold._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wouldn't bid before binance opens for trade. Why? Because I can't bid right now!! :( lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k next week maybe even this Friday!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far away from 420_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fyi, gold is flashing sell signals again, kumar_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggest fall of 2018 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now down 10% in pre-market!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© ★ I spend 105M to buy bitcoin and  [PESSIMISTICVALUE]  major altcoins_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday long above  [OPTIMISTICVALUE]  Targets 26842 26860. Short below 26747 Targets 26725 26707_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only until this stock actual shows a real revenue and earnings stream will it come back to a normal rational valuation. Shorting this thing is a day to day trade, short interest this high is as we all know really dangerous. The whole market is nuts , I was...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can someone please ask GB to unblock me? cheers!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for the next Tweet of mass destruction from POTUS_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla surprised me today with $279 test.  We are on top of the channel now.  Let's see if it will turn back from here towards $ [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF we dont break this support below  [PESSIMISTICVALUE] $ then we Are going to retest 3920-3940 before 3550_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short nq 6545 TP 6490 Stoploss 6580_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIS is what I have been SAYING. https://www.forbes.com/sites/larrymagid/2019/03/12/for-safety-sake-tesla-should-expand-voice-controls-asap/#437908084a2b_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June  [PESSIMISTICVALUE]  on the way to cash_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us gone mad with no idea what to do_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would happen if tesla was profitable? Stock price would sky rocket right?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just some Short Covering / refresh and new distribution_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insanity_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A genuious like Elon on productionside and someone like Warren on finance would make tesla unstoppable. Elon got this my baby-problem._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whos getting a good laugh on this ? :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My 401k is getting killed but my trading account is doing great._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why the down fall??? Is it too early for Bulls_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seems that BTC just crucified all crypto bears._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st TG 25500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic buying opportunity!   20% margin on M3 without only selling high end models restricted by supply 'Not Demand'.  Almost $200M non-recurring charges and anticipated M S/X declines to cater for updated powertrain as they limited models offered to mo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top  [PESSIMISTICVALUE]  gambling site that accept btc are going to sell at the start of the super bowl game so what does that tell you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is just a wave 2 out of 5 and it looks like to be zigzag, fast &amp;amp; furious.. watch out, the 3rd and 5th waves downhill are going to hit 17K and 14K very roughly..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silly bulls ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pullback till 9k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dow is currently maintaining a weekly advance of 1.3%.. however, it is still in the red for the year. it needs to break above 24719 to get out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up we go_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This slow drop is the butter on my bread._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Now the Curbs Are on...Because Danger Ahead...Bear Trap...Be very Very Careful...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you held Tesla year to day you would lose 11% while Tesla lost almost $6 in EPS._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/6yn85  seems we can climb around 96xx and will decide whether to turn back or go up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will printest and zoom have an effect on dow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here comes the reality dump. stairs up escalator down. short or get out._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jafari stated that Her team warned investors to keep an eye on BTC price, predicting that, “The next meaningful level is down at $7.667 to $7,198.”_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My memory of today's crash_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://finance.yahoo.com/news/brodsky-smith-llc-announces-investigation-233500308.html?.tsrc=rss_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/prysmatic-labs/ethereum- [PESSIMISTICVALUE] -0-prysm-demo-release-v0-0-0-78d33e9cdbdf3 [PESSIMISTICVALUE]  ETH = validator_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The day is not over..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put my last Buy at 265_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omg it’s up  [PESSIMISTICVALUE] ..merry Xmas baggies_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30k soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ [PESSIMISTICVALUE]  next nothing holding_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I posted " ... U/KC( [PESSIMISTICVALUE] ;1) was rejected - so might be heading to M/KC (EMA [PESSIMISTICVALUE] ) ~8050... " And now adding Sorin's Inv-H&amp;amp;S.; https://invst.ly/83xme_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will sell off later in day_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show me the money._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello everyone, i am doing a university dissertation on crypto and was wondering if you lot could do a quick survey for me please_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minor Feds are trying pump up the jam..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dax bankruptcy down 10%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's it folks. If you're not in, get in. Train is leaving the station. Fireworks at 9k._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----It is very fairly common to see a pullback near to neck line after formation of the pattern. It should generally be seen as a healthy thing as it gives better confirmation of neckline as resistance.---- . http://tutorials.topstockresearch.com/Tutorials...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to catch Elon margin call it's close guys :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still looking weak ********_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where is the (follow me  [OPTIMISTICVALUE]  guy) why is he not sharing his wisdom? Any can predict that the market go up when there is plenty of free money around but when u need real thought and insight, the nowhere to be found_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ill buy this ********when the stock price starts with a 1, not a 2 or 3._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE TIME HAS COME: btc - [PESSIMISTICVALUE] .02%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks Trump for leading the DOW below it's 200 moving average snapping a 501 day record. He is a narcissistic president who thinks he knows everything about how business operates. Do you remember Trump Casino and Trump University? He is a POS. I voted for...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We will delay $1k full self-driving option price increase until May 10 for those unable to order by May 1" It looks like not many people bought that option._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep an eye on the 30M candle...thinking a jump is coming_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do Warmongers WANT?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a fairy tale. He smoked dope and got it alwrite_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just buy the dips..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blow off top_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well...Elon was successful at launching some more hard earned money into space yesterday.  I expect the same to happen here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all in or no? what do you guys think_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long waited. First stop  [PESSIMISTICVALUE] ._x000D_
 </t>
   </si>
   <si>
@@ -1284,2731 +3684,331 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Now we will..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm taking long from this level
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy in the morning... million dollar gain ... sell... nap._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have a chance of closing above the median BB line first time in over a year .... I might bail out of alts either way_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can help me
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like I said first thing AM $298 today!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This week will going up again_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like I said we're going to 24200
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulls, it's a bargains buy it !!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] ready fall? sip sip :)-~_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow can do [OPTIMISTIC VALUE] in 10 days to complete hns pattern on daily chart
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well it looks like this is going to accelerate._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If its not white then is black,right CG?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOW is heading to 24.000 based on my chart.  It broke through the 60 SMA yesterday and is now sitting at the 150 day SMA. It's in the down trend channel with the trend support at 24k.. Gold goes up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double top config on short term, pointing for a big short_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crypto *******_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don't worry 50k by Friday...Not
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fortune.com/2018/03/27/tesla-bankruptcy/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any lower and its gonna get ugly_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yep..... today is a down time!!!!! For sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How would you trade Tesla?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I still hold my BTC but the next half f my crypto- funds i have in TRX._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forming a “tipping top” short term double bottom pattern, looking to well below 24.000 in upcoming days/weeks
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla has hit its production targets for the quarter and that looks really good. Let's wait for the official release. If that's true then this will move above $[OPTIMISTIC VALUE]. And a profitable Quarter will take us to $419_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how many times we seen this now this last month, lol_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dow jone move 200 point positive today.... lock my word...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the China's central government ordered to block Tesla's shipment, it is game over. But, if port authorities blocked it to get some bribe, it might be okay._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kindly respect this channel._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long 250 , SL [PESSIMISTIC VALUE] , TP 400_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmm.... bullish divergence on the [PESSIMISTIC VALUE] hour, RSI._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we basically going to loose a year of gains in two days. if they tell you this correction, they have no clue.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citron research upgraded to $[OPTIMISTIC VALUE], chinese investment 500mil, so bullish tesla . next week hits $300 for sure_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sip goodnight and goodluck i see RED before i sleep but dream GREEN_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why open lower today?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it's time to buy... future is Tesla.. believe Elon!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murat Ceylan_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So Trump is driving the Capital Markets to the moon I see the Dow at 30K, the Nasdaq at 10K and the S&amp;amp;P at 3K by the end of the year.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">told you about the 270, it's time to buy_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, forget about HODL, have a look at Bitconnect. Only sell guys, save your hard earned cach_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy the dips for [OPTIMISTIC VALUE] by year end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id say around [PESSIMISTIC VALUE]-220 the bottom, but i wont try, the bearish momentum is HUGE. Just run... and i like the company, but i like my money better. Trade safe_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most cryptocurrencues are getting hammered with [PESSIMISTIC VALUE]% decline_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double isolated islands candlestick on one bold trend line
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang the price action shows it will drift lower.  Pay attention.  $[PESSIMISTIC VALUE] and $266 if lower._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h looks like a Bart Simpson head. I also see some divergence? Price goes up but RSI, %R, Stoch RSI and MACD go down_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apple EPS just beat by pennies but that due to buy back without that they be in -ve
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[OPTIMISTIC VALUE] is reasonable till financial report is out on Agu 1st_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still respecting the dashed line but the triangle should break soon. [PESSIMISTIC VALUE] is the TP._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get ready Guys..To ride my Coat Tails....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maybe go private a 2 40 no 4 20 or 1 40_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorting this pop at [PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">still rigged dow it still pushes eu futures up its insane
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falling in the pre-market, due a big fall soon, totally over pumped snd over manipulated_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIVX/ETH ...snacks_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please wait for the news
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It feels good to be long. Gonna set a stop loss tomorrow. ;-)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There it is ...bounce ....cleaned out newbie_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market will be go down
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is also a chance they will release numbers after big court date tomorrow. If we get positive outcome on both, we should see above [OPTIMISTIC VALUE] again._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k on it's way :) Dam_n Where is Hyborian War and his train wreck charts ;). I wonder if he is still saying he's not looking back on $[PESSIMISTIC VALUE] longs:) I suggest he reconsider that bright idea:)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They love the algo, they need the algo... because it slows the losses they will be making... as the world listens to its news with thumbs down....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teshlanos_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If this formation would be the other way aroun and a top formation, i would be bearish af_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank earnings positive buying opportunity
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As long as Mr Musk uses his tweeter, this stock is not going anywhere. This is the time to sell_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's going to ****like d Dow tomorrow_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shouldnu0027t the dow jones move up from the data?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUMAR THIS_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everybody watch me here, good time to buy more, do not short market, Trump will kick your *** just closed your eyes buy it, you will see price much difference after 3month or 6 month, I want help everyone here stop loose, make easy money.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large amount of strick [OPTIMISTIC VALUE] option will due soon. iron man promised..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here is a safe plan. LTC enter now and SL [PESSIMISTIC VALUE]. Tgt 200 or 300._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dow dax is flying ？any idea ？
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would expect a class action against the SEC and Musk in the future._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTC is gonna rip one way above $[PESSIMISTIC VALUE]..  watch. you snooze you loose . Post_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dow is about to complete its 4th corrective wave downward target [PESSIMISTIC VALUE].
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla is not a good car with lots of problems!  You don't hear Musk talking about it!  Feds should really investigate this Enron look a like!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another P2P decentralized exchange no KYC and doesnt hold your funds  ;-D …  https://hodlhodl.com_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Jump, Bear Trap for sure!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today it came very close to $[PESSIMISTIC VALUE] the low was $267.30.  So I am not sure it will move lower from here.  I think investors are waiting for another shoe to drop or what will happen with SEC contempt.  I read today that Elon's brother may resign.  It he does i...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just added shorts :D_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budfoxxx not u.... I m best... I'm king of the kings... I have predicted 14000 in 2 year with number of short covering bounce.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla will go to [OPTIMISTIC VALUE] at least. Just look at the 2h bars chart. Buy now you won't regret it._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammer Time_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dow jones ....it definately seems it may cross [OPTIMISTIC VALUE] in near future considering the economic condition improving gradually.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] within the next couple of weeks or are people getting skittish on the value?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">where's the volume? This feels more lethargic than ever ..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can't break 24k
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's the auto pilot thing. 'Accelerating right before impact from 60 to 70 mph in the last 3 seconds.'. and with all the other 'auto pilot' issues/accidens and battery fires the chances for some sort of recall or shut down by the NTSB is growing._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, the web is : CryptoHawk.com, please tell me and let me know._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 160 next tgt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today model Y next week more stock offering_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sidelines. more PAIN looks like otw goodlord that hurt the ppc of a lot of coins_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23050 coming
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">works out to $2885.00 not taking out the fees. but my fees are low. but that was not cool. I tell my husband not to bug me in the am but worked out OK_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.500_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume is huge, 100M in 75 mins. this shows power of downtrend.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorts,,,! PAPA is here! ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorts are you interested in a weather forecast from "Gray" box? ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see lots of upside don't short
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla's Main Product Isn't Cars, It's SubsidiesTesla received $713 million in U.S. subsidies in Q3, compared to its $[OPTIMISTIC VALUE] million profit_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any questions so far?...._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another top executive leaves TESLA_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What happened with tether?? Anyone_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullish signal 26.400
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love how everyone is shunning TSLA on this dip but hasn't looked at the SPY -2.5% .. Jokes._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 6.534.40 5H Resistance is crossed (RSI = 60.426, Highs/Lows = 148.4128) and BTC is now technically ready to make the new 0.500 - 0.618 Fibonacci retracement = 6,768.60 - 6,920.50. This will be essentially a Lower High on a 1D Descending Triangle (RSI =...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] then fizzle out for years to 15000ish
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorted this stock, smelling so much trouble ahead due to this crazy tweet....._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..last one out turn off the lights..good night_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Jone today can closed above 24000, it Wil be rebound back after the support on 23800. But S&amp;amp;P and NASDAQ will continue downturn as market start move out from the IT stocks, eg:Facebook, Intel and Cisco will continue being sold out by investor in this w...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everytime Bob Lutz came to bash Tesla, the stock was at its lowest values. He bashed Tesla yesterday so yes think we are close the the bottom. Never failed before.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If it closed this day above [OPTIMISTIC VALUE] , then the next target is 6700_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know we have left the earth long ago and that the whole system is rigged and parabolic and bla bla bla... But just have to show this chart. Parabolic movement - Check. And a big megaphone pattern. - Check. . - And look at the oscilator compared to the fo...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time to buy_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold for 4.200 5,000 5,700 and 6,000_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After yday drop it appears its business as usual and the bull trend is firmly back on track... fun while it lasted!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of tesla's strenghts is that people believe in it (always the dips were quickly bought in all the bearish news that weighed on the price) so I guess is hard for the bears side to overcome this stock. Im in neutral ground._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I tried to help you guys..my condolences_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explosion is coming , see 15 m candles by using BB ,  i think price going down to 2482X .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at some point it will drop to $[PESSIMISTIC VALUE] and stay there for a long time.  Musk is out of options._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panic selling. Probably thise who bought abive 10k_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panasonic is punishing Tesla for planning to do business with Chinese battery producer and Maxwell deal :D Good move Panasonic good move but now it is certain you will not get anything new from Tesla._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We may see 14k within a week or [PESSIMISTIC VALUE] !!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back to 24000 by market close?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see now reason why TESLA should go up the next time, I mean, why?^^ Its behavior, the losses and this stock market manipulation, why would anyone still buy TESLA shares?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weird pump and dumps happening. Just whales playing around_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another rally being faded. Low 23k before we get a reversal to 25k.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did anyone see how it backed off from $279 price?  Any idea why?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloom roasting banksters in front of the EU classic ;-)  https://www.youtube.com/watch?v=hYzX3YZoMrs_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short at 23773
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uh oh shorts...WASHINGTON (Reuters) - Tesla (NASDAQ:TSLA) Inc and General Motors Co (NYSE:GM), which have lobbied Congress to lift a cap on electric vehicles eligible for a $7.500 tax credit, could get their way for up to four years under a new proposal fr...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys; no one knows where this is going. All entries are just a gamble. We need to wait a bit._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was a buy in [PESSIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang it will keep on going lower.  Much worse than expected loss and too many negatives!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A quick drop over the next several days followed by a rally above 9007_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sell and wait close 242xx :)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the bigger loons running out of hot air._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">since this isn’t a currency fed decision is a non event here_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super low volume day
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opps got even lower.  Now if it break below $275 there is no bottom under it!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since [PESSIMISTIC VALUE] June, bitcoin is under the downward pressure of 4H SMA30, and then this pressure has intensified with 4H SMA/EMA 20. Of course, the bulls made several attempts to break through the resistance, but these purchases were "weak". As a result, bitcoin ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shorted the DOW at 24..4k
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You want my shares??? Maybe at [OPTIMISTIC VALUE]! Not even 419.9 you can take them! :D_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys, next resistance is 10160-[OPTIMISTIC VALUE], rigth?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad news for bulls
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The company should have a line of business focused on leasing home battery packs and use the cash flows from that to fund the lumpy auto production business. It'll stabilize the company's cash flows. The former would be valuable as debt security. Look at c...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you guys could be actually making money on cd’s..assuming you’re not holding major bags here..[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] GL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great article and every tesla speculator should read. Do not forget to read comments of article also. And take your position. . . https://seekingalpha.com/article/4246354-tesla-unsecured-debt-recovery-tops-30c-lucky?utm_source=partner_investingcom_feed_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderdome; Let it be written, let it be done..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see strong bullish bar reversal on the 15m and daily charts. However its too early to comment on daily chart but one can buy from here with stop loss of 24072
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why tesla don t raise capital? There is something that forbid it to raise new money_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorts almost ATH again_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be prepared for [PESSIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anything south of -$69 this baby will tank._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the H&amp;amp;S; ones out there, are you going to put faith in it and buy if it goes down to [PESSIMISTIC VALUE]-6300?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this a reversal hammer head on 1D for starting up trend?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we are going down :D_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pos boro na exo ena_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4% with no volume. What does this mean?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musk you are the sabotage for this company $370 put open lets go baby!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You bought a nice piece of meat and it became a banana the time you got back home...btc world_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothing is going to be resolved - forget this trade talk nonsense
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think tomorrow there will be pain and the stock will drop back down to where it was prior to the announcement of an announcement._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's the deal - I will post this for the last time. Stop chasing one token or another trying to guess tops and bottoms. Unless you have time and good TA skills you cannot effectively gain with knee-jerk reactions or wait for handouts from GB, CG &amp;amp; Co. Go...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow 23k soon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla will be bought maybe not by software company but by auto manufacturer.  Looks like maybe Mercedes Benz?  They will collaborate on the new Sprinter ev model first and if success I think it will be bought.   https://www.yahoo.com/news/could-tesla-merce...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500mn crypto heist: Japanese exchange Coincheck halts trade, ‘deeply sorry’ for users’ loss...i wonder who stole the money haha_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am very scared that old bull will take scary revenge today!!!!=,(
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any suggestions regarding buying here or wait till Monday?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssoo who bought? im heavy in ltc from [PESSIMISTIC VALUE].... what did ya grab?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halfway to 1000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I sold at price 304. Lol. And it is strong up_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We tested the 6k area [PESSIMISTIC VALUE] times. Every bounce was weaker with like -1[PESSIMISTIC VALUE]%. We never closed the week above mid Bollinger band. Everyone feels safe as we have this strong support bellow and hodlers that swear they "will never sell"(forum sentiment went from 60% ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you trump
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I hope he does open a marijuana business Iu0027m all in on that too._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© ★ futures keeping btc down, expect sideways again_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295 target strong sell
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone advise for buy now ???_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ya think he goes to 14.000$_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trump is mental a person so dont traps in his decisions and buy only it will go up and up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no respect for the law making fun of the sec and now the fbi.smoke marijuana in front of everyone.who you think you are!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this fake move or real move?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow intraday long above 25189. Short below [OPTIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i think the stop is at $[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there any relation between this drop and the fear of a taxe against Chinese's importation ?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more free market. Ppt for the western world is a form of KGB on the east folks. Good luck.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">below 250. what next?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a reminder price are setting at top weekly boiling band, a small correction as expected pull back to MA5/[PESSIMISTIC VALUE], a healthy chart, expecting in coming week price will slowly squeezing back up_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low volume?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last chance for short sellers to out with no source news._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">over 8700 will be strong move up_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can anyone help me say "bubble bubble"?. . . https://www.investing.com/rates-bonds/u.s.-7-year-bond-yield
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All - The market is worse than some see. Waiting till we hit a reversal on the SP before entry. Happy Holidays all (Besides you shorts LOL)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiate Tether FUD. Oh, I forgot that's only used when needed to keep a consolidation triangle in play and to add fuel to the downside when it breaks._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dow jonesbullish or bearish
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take your short profits. we all forgve you..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coinbase ordered to give the IRS data on users trading more than $20.000 nnhttps://techcrunch.com/2017/11/29/coinbase-internal-revenue-service-taxation/ Why you ask, well let me tell you for 2016 Only 802 People Told the IRS About Bitcoin— nnhttp://fortune...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whoops.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im buying too. :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genltmen, get ready for some bulls ! Mr Kumar is here !_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powel is an open Q&amp;amp;A he starting now
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad day for shareholders_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://invst.ly/6qmrz_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pretty boring morning all eyes on the US i guess now..does this pop to the upside or will we see askhay number of below [PESSIMISTIC VALUE]?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another test of $[OPTIMISTIC VALUE] today?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3900 new support?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Boomers..are Ready to Cash out soon...There Tired of this Nonsense...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just. buy._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now DJ30 at SUP2 25777 if breakout this SUP2 i think dropping to 25664
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What will happen with Tesla when economy is heading towards recession according to you guys?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gray box 7800 resistance or not?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It appears a huge sellout might be coming. So scary reminds me of 2008!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munro Teardown shows model 3 is over 30% profitable. ;-) Tesla has a good future ahead._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 3D [PESSIMISTIC VALUE] EMA comes in at 7470 as well as a 1.618 extension from wave 1 and 2 coming in at 7430. I'm thinking to believe that my last call for a  4 was inaccurate as it only did a .38 retrace and the rebound was too quick and shallow for a proper bottomin...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE]+ today
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somebody said today. "The official end of the ICE age is October 24, 2018". . This is powerfull !!!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.800 coming soon._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi, Hamed Lavasani hope you doing great. I really appreciated your remarks...today as we observed dow lose 300 pts at a certain period of time while nas100 not as much that while most of the components of dow were red on the other hand nas100 were green(mo...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearly bottomed out, wait and watch._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What happened guys ,strange moves_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GDP number could be a major game changer!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESLA seem strong still at $298-$299 or more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where is retired canuck granfa? He said there's no bear market in BTC._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24500 tonight
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCEDRIC.KIRBY INC. would like to merge within TESLA companies_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do not short market at this level ... Market is having but more energy so shorties can relax for at least for [PESSIMISTIC VALUE] more weeks._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next week we will see what's gonna happen because of earnings.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I told you to short this bubble. ;) Closed some more puts here. Afraid of the coming bounce and the open gap._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy, it’s a suckers rally!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">who is laughing now that I said DAX is about to go -3% target 11700! Time to cash in!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when I ask Tesla maniacs about Tesla's valuation they say Tesla is not a car company, it's a tech company. When I ask what technology does Tesla have, they say its battery technology is best in the world. When I say the battery technology patents are owned...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anyone else having issues with your charts here by getting booted off and having to reenter them?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trump, speaking to reporters in Washington just two hours after his top economic adviser expressed caution about U.S.-China trade relations, said: "China very much wants to make a deal." "We've had a very good discussions with China, we're getting much clo...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm starting to think these news people read what we say in here because usually a few days after something is discussed an article comes out_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shorts don't torture yourselves by holding your breath, go ahead and breath, you are still going to get killed so holding your breath won't help._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMG, why didnt I went long today...reading to much forum...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 is the magic number. Scalp like no tomorrow. But make sure you go long before the next numbers are in._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is not a falling, this is a falling flamethrower_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What time does the melt down occur?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once-hailed ‘Tesla Killer’ Audi e-tron slows down production to just 6 hrs/day:. https://www.teslarati.com/tesla ****audi-etron-battery-production-update_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a smack down coming. Watch out. I'm not invested and won't be until around upper 2ks. Enjoy bears. Another short for you._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAANGs report over the next two weeks. If tech breaks, it all breaks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.100 -8.98%_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My trading plan stays un changed as the 5H Channel Down is rising, following the 9.231.10 bottom, and is moving for its 12,600 - 12,700 Lower High. After that I expect consolidation on 11,658 - 12,700 as 5H High Volatility suggests (ATR = 1175.4282) couple...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And... China/US working on 6 memorandums. When US and China. The BIG 2 make a mega deal there is never going to be any collapse period. They are investing in each other for a new way forward aa strong nation states. Not globalist garbage. China USA and Chi...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can tell the ratio of Bulls and Bears in this comment section based on the like/dislike counts lol_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let it drop let it drop. Who's fighting against the trend?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think the end of the month rally is still possible..... so,  it could end in [OPTIMISTIC VALUE]-500 and then a big red candle again after Eastern....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we need this stock at [OPTIMISTIC VALUE] so I can buy put options. right now all I have is my short positions_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lets 2nd gear btc to [OPTIMISTIC VALUE]$_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Market is run by insiders
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">up down up down. toying with you_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the best investment in bitcoin?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anyone remember WorldCom?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does anyone know when the next btc (cboe) future expires? thanks_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow still cheap to buy long term TP 26.200-26,400
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since this big drop from $[OPTIMISTIC VALUE] Tesla can't move up more than 1% to bounce.  How much more to drop?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm just switched to negative delta for btc.. I'm holding short dated puts and long dated calls.  I think there might be a rejection here as vol is small_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go up because I want to short more.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time to short Tesla folks. Big time I mean! Frog man will have a new home here soon._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETC looking good for the alts.. expect some serious boom boom on any ETH upside_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have decided to start placing my sentiments here. It is the only way to track who has a good record worth following and who hasn't. Plain and simple, I wish everyone was doing the same. Daily ADX is ready to push it above [OPTIMISTIC VALUE], with the only problem bei...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazed it may still manage to close in the green..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im sorry to All bearsh it will not go below [PESSIMISTIC VALUE] this year Maybe it will never in future who knows :)))_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No green today for dow as it looks like...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if you are an investor, that 10% fall is a huge opportunity to increase your position._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The new binance is almost lag free, big thumbs up._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now buy dow jone soon 300 point recovered....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musk is just a little part of the equation. The problem is that there is no model_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No kumar ??_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing below [PESSIMISTIC VALUE] will open doors for 23920
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can't wait to buy tesla......at $50 a share._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short term the price is going to want to retest those two wicks between 6370-6410 so movement down to there doesnt prove a dump. that said im still pretty bearish :/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what is global growth worries .. all bull ****. manipulated
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark my words, this will hit 500. it's an approtunity to buy... Warren Buffett says " buy when people are afraid and sell whe they are greedy"_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good time and spot to watch oil and trade long... Great r/r_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy DOW 30.. STEAL IF YOU MUST !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First things people stop buying when there is a recession comming are cars, i think the whole car industry is about to thumble... Tesla will be no exception!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time to go up boys and girls ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorry guys very volatile not getting chance to post calls it going fast. a very good day
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zerohedge.com/news/2019-02-07/ny-state-senator-infuriated-tesla-layoffs-after-750-million-taxpayer-assistance_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] level should scare the bears for now as we have 50 and 200 ema around there, but if its pierced, some serious selling might come._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Smoke and Mirrors Guys and you Beautiful Asian Women....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What a day yesterday! Thats not normal! Thats against all rules, It's like a cult. No matter how it goes, they buy, buy and burn it later!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy now it's going [OPTIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sellers aren't done yet.  But we're looking at a very solid bottom at 24.600 on the Dow.  Anything below 25,000 is a strong buy... if you've got a month or longer to wait.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsat chance to quit._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are we red yet?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The major correction wave c begins
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ark-invest.com/research/tesla-fsd_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE].5k_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2year bond over 2 now very strange the Dow is rocketing higher..Well that's irrational exuberance for you..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get ready for dax and dow sell off_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse Head and Shoulders shaping up on 5H (RSI = [PESSIMISTIC VALUE].102, MACD = 31.100, Highs/Lows = 106.6859) breaking the 1D Channel Down higher, but despite the neutrality on ADX, CCI, HL it predominantly remains bearish (RSI = 31.693, MACD = -543.800, BBP = -491.887...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here come bear
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">let's see...[OPTIMISTIC VALUE] or more for today...be ready_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitfinex suspends all fiat deposits... those who knew already sold... theblockcrypto.com/tiny/bitfinex-suspends-all-fiat-deposits/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rollover time
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275 is holding well so far_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6222 (MC=[PESSIMISTIC VALUE]) &amp;gt;  5555 (MC=95) 7/7/18 &amp;gt; 4444 (MC=76) 7/24/18 &amp;gt; 3818 (MC=65) 8/8/18  . 5555 might even come before 7/7/18  Bulls buy on dip better have risk mgmt intact...GL :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will finish down -733
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to the person marking the posts you don't like as spam. we can see what you marked as spam, we understand you don't like the post, that doesn't make it spam. In addition, now the moderator has to read all the posts you marked as spam to determine if In fac...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any news for XVG?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broke 24.300 but then popped right back up. Now 24.300 strong support. See this going up for a few days now. Back over 25k then reevaluate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the oil is up and Tesla is hammered. I guess we know what's going on now. xD_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just a PSA in case some of you didn't get the memo: Bitfinex issues white paper for $[PESSIMISTIC VALUE] billion token sale; exchange plans to use money to cover frozen funds_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yields are coming up, this rally will be short lived.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110% year over year. Model 3 expectations were 51K they got 50.9K with 10k in transit. TANTRUM TIME_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekend bullish pump was not happened. Now put your finger on sell order button before it goes back to 5K._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book profit at cmp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here is the death of Tesla_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No big break-outs likely until Tokyo open tomorrow. Glaze the meat bear/bull your preference with lots of special sauce so you have some odds on your side. GL playerz._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merry Christmas and a Happy New Year! Peace on Earth Goodwill to All Mankind!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boomberg's on-line tracker doesn't add up.  For the two weeks since they broke the tracker the on-line data reflects production less than 975 vehicles per weeks.  There is no ramping reflected in there own data they continue to present, yet no revision.  T...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here little FOMO FOMO come and get your BTCs.... How is that for talking smack ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don't short.will go up sharply.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations to all LONGS out there spectacular news!!!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your brother in law bought it to become a millionaire in USD not for the mathematical thing he doesn’t want to understand...he doesn’t care to be a millionaire in btc as he knows he never will...that the mathematic of the majority_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell order trigger at 24057...I post this according to https://investing com indicator(1h vortex).... Generally I follow it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$305 today?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Below [PESSIMISTIC VALUE] Third Time
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should start going higher right about now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price is below the 200dma 4hr. and really the next support of interest to me would be the low of the last 4hr candle if breached I would be looking at some defending of 6650+/-._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait ,4 hr to spend yet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just wait that tesla run out of order model 3 expensive version and start to build the $35k they will lose so much money!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign of Bitcoin getting stronger and towards ATH: [PESSIMISTIC VALUE]: Michael Som preaching about shorts he takes (with demo account). 2: Kumar enters the game with his funny comments about "DoomShot!". 3: Milano enters the comments, places buy orders, confirming the bulli...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with the speed that goes up, it drops twice as fast.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Y release tomorrow is a short term boost for the stock. But the SEC will probably hold a hearing in the next two weeks, which will continue to hang over darkly. And if the global recession is real car sales slow this year, this feels like a risky buy...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I put these lines on my chart some time ago but didn't expect them to be this accurate. 1D RSI seems to have support at the lower line as it was hit again today https://invst.ly/9n58-_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalper u r very accurate ..plz teach us
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News Alert: Audi Will Have a Tesla Model 3 Rival in 2023: Report. . https://jalopnik.com/audi-will-have-a-tesla-model-3-rival-in-2023-report-1833572044_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNBC says enter long at 6550, so I will sell lol https://pbs.twimg.com/media/DoHeG2GXgAACtvi?format=jpg_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.000 then 50,000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everything will be fine_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.foxnews.com/tech/crypto-promoter-unmasked-accused-of-fraud-to-lure-investors-via-youtube_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy on correction working.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:) "Due to unusually high volume, Tesla was unable to process all orders by midnight on Monday, so the slight price rise on vehicles is postponed to midnight Wednesday" Demand is incredible. Once this SEC thing is over instead [OPTIMISTIC VALUE]._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTC market cap now looking a bit healthier, now around [PESSIMISTIC VALUE] BLN USD, that's up from around 117 BLN USD yesterday with trading volume on BFX around the 200k region in the last 24 hrs and BTC dominance in the market standing @35.3%....The total crypto market ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going above [OPTIMISTIC VALUE] buy and hold will be up to 28000 by next year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support at [PESSIMISTIC VALUE], resistance at 348.. Place your bets right ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am disappointed. Salp me bought bitcoin at 8100 sold at 8300 . I needed to wait. It’s now 8600._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What a joke
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla will never survive private.musk and the board are desperate because the sec.we know nobody can pay for all the bilions of dollars in loss.only the market can keep this company alive.was bad before know is horrible.$[PESSIMISTIC VALUE] next_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..this is like being plugged in a sand trap_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy is horrible but Powell put will push markets only higher. Very tough for bears to push market lower. Bears are beaten badly from last ten years:)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier, I do not believe anything Musk says these days after his stint with funding secured._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the theoretical target of this formation is a bit above [PESSIMISTIC VALUE]. Unlikely but it can get really ugly imo. https://www.tradingview.com/x/0zldnmki/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello oo Friends, please what are the factors that influence Dow Jones to either buy or sell. please somebody should help me
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">great publicity but nothing to see here folks._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please Btc 18v552kRSXbkw4fx11WozMbbRyhgBaPgFA_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys do you use a stop loss?????
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a stockholder. If SEC is supposed to protect me, how come I loose 0% after EM tweet, but 5-10% of value of my stock every time SEC do some action? The only ones who are protected and profitable are shorts who are NOT even stock holders?! **** This is ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] - 4770 - 4550 - 3130 - 2120_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If this closes above 24.146, it could test 24,434. I'll wait for confirmation on that before submitting more shorts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like I said it wouldn't stay above $240 for long!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i sip AT's for breakfast :)-~_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NQ TP Hit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wcsecure.weblink.com.au/pdf/KDR/01982380.pdf Deal with Tesla_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customers using credit cards on Coinbase: the following card issuers are now blocking purchases of digital currency with credit cards. Chase Bank of America Citi Capital One_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dip again, buy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEC: Take Elon to court, fine him, and remove his chairman position over tweets!. . China: Gave Elon an extremely rare honorary citizenship and government backed construction loans. . Which one do you think wants to win the future?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Btc most useless of all asset. Who trade this long. You ever use this junk. Absolute junk. Expect [PESSIMISTIC VALUE]% this worthless in a few years. You see I know bubble when see bubble. How possible this ever go 18000 last year, complete junk_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goldman&amp;amp;dow:follow me sp &amp;amp; nq: fxk you， you run too fast
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[PESSIMISTIC VALUE] by eod_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crypto is the future_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gee sounds like some unhappy green babies today
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIP to everyone that bought #tsla this morning at opening_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am more interesting watching than buying it._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st 250152nd 250963rd [OPTIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla breaks down_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i am telling you go long_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short 23930 Stoploss 23970 TP 23790
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatto do you even know how electricity is made?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9200 coming in [PESSIMISTIC VALUE] mins._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think 26-28K Dow due to tax reform and last push before correction of at least 20%.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may be not :(_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opened a short position - $[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Already 99m vol in an hour buying into the gap... now its a wait for after hours and netflix numbers release.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In my view, Tesla will break soon the barrière of $[OPTIMISTIC VALUE]-$380 towards $400.. . . The past years, Tesla had a lot of issues, which most of them are solved.. . . Knowing about Elon Musk who still will buy $20 million of shares in the coming days, weeks, will m...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] amount are at 7437 on bid side on Bitfinex. :O_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoofing today’s price before hedge fund redemption day. Bull trap!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Its holding up 300 pretty well so far. Not much volume, not a lot of people selling... nor buying.. a lot of wait and see._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short dax 12280 Stoploss 12330 TP 12210
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's Elon my friend not Leon._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good night guys - whoever is left that I haven't blocked yet ;-))) sorry but this is a [PESSIMISTIC VALUE]-ring circus_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US will surely make some intervention in Syria -tomorrow can be a very volatile day... Otherwise Chinese are thinking about yuan depreciation as a result of the trade war, last time when they did depreciate it there were a big drop in the market ....  http...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was at the body shop today 7 tesla are in not for accidents but because the defective body parts doors trim etc.what a junk!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s great to see BTC in the red and alt coins in the green. It’s about time. This should be every day._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell Dax
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anybody know why is going on?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From yesterday i was saying it raise up , i think it will touch dotted blue line at 68xx_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi Dow just jumping to and fro I think its going down soon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] end of week and down again_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello my children! Get ready for a lift off!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air coming out of this bubble. this is just the beginning of the decline
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOL,,,,,_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell on hope ! Every rally will now be shorter..the story just start unfolding_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedge bulls... hedge, don't hesitate.. hedge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So if this stock falls below $[PESSIMISTIC VALUE] Elon Musk will be margin called on his borrowings against Tesla stock, which will cause him to sell into a falling market and create a negative feedback loop. That is why he is so desperately hyping the stock and behaving ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every dip is buy_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man. Somebody hit the buy button quickly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Elon we trust. He made both American cars and American rockets GREAT again :D Tesla is sitting on a gold mine. Autonomous driving tech is the leader (worth [PESSIMISTIC VALUE] Billion$ according to Morgan ;0 ), It's battery tech and capacity is light years ahead than t...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binance 5223 usdt . Binance [PESSIMISTIC VALUE] tusd . Bitfinex 5317 . Bitmex 5032 lmao_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4 earnings 29.01.19 to watch:. 3M. Apple. Pfizer. Verizon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question to ponder over the long weekend. Tesla and Musk KNEW they would need funding soon to keep the lights on and ramp up production. But no new funding attempt was made in 4Q or Jan-Feb when stock price was near record highs. Why no new share offering ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what a good definition of bull market and what price you going pay for ?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] is coming tonight
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oh, just wait til tomorrow. blood bath_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fake breakout of the ascending triangle? Monday a big move up or down? https://invst.ly/9ynge_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh dear oh dear Dow are you so worried about interest rates, take fundamentals and go ahead with good stocks
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Had been on this rally from [PESSIMISTIC VALUE] to 220. Middle price was 297._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why suddenly those ultra long wicks?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys, remember what trump said https://www.youtube.com/watch?v=uFRWOPh55Jo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last call for $347 before the drop to $[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The stall before the fall, or the breathe to climb back up ._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618 rebound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look up apple and nvidia join facebook in my bear market portfolio. by Ken Kam. it is an article that has really good tips for newbies. I can't post the link so you will have to plug it into google. it's a Forbes article_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trading bitcoin is so easy. :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Told you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we break $[PESSIMISTIC VALUE].50 today next stop $279-280_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one more correction back to 5k - 6k so we can all in for longs....lol_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re enter only above [OPTIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am not sure if anyone noticed but I said all alone Tesla will not be able to make profit by selling $35k Model 3.  At this point this is none event because the news is more negative than positive.  Tesla is obviously not able to sell a more expensive car...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uh-huh, this actually doesn't look good for bears. Price is maintaining this level and this can mean there won't be a drop to 3.350..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fu__ The Dow BUY HUM..What's the matter with you guy's ha?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what suddenly dropped it to 297? the consumer reports article?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here's a charted version of my warning. it dont look pretty long term_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any thoughts about Fed minutes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time for coffee! r. r. https://invst.ly/8eedo_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anyone knows if amd when SECC ETH revision will be published?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Sell target hit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a very good sign for TSLA. Breaking $350 resist on a *****market? Would like to see this close above $350 today/Friday._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looking forward to bullrun now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sitting around waiting for black Friday that's why its called day dreaming
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear, Musk has to take position and his bond is maturing in March 2019 so it will up._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I miss Kumar, his number 6666_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trump's fault. this what happen when you manipulate the market and create fake gains. Trump and his team need to hangged and lynched for this treason.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seems like It'll fall to $[PESSIMISTIC VALUE] before going up. I'd suggest to wait until then or sell for those 20 points_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like that long GREEN candle :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the market turns to uptrend from today, so many people will incure huge loss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dont want to speculate on that, but considering 5G is already approved, Tesla is one of the leaders in self driving cars development, which will depend a lot on fast 5G speed and Tesla entered China, one of the leaders in 5G development, Tusk has to be rea...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://invst.ly/6gh4v_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A swing into deep red and a close in the green today, just my opinion...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethereum_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] next stop_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China making fresh bid to boost loans to small firms as economy slows. https://www.reuters.com/article/us-china-banks-loans/china-making-fresh-bid-to-boost-loans-to-small-firms-as-economy-slows-idUSKCN1N40H7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yesterday someone nailed it when he said Tesla will be trading at the 280's but seriously let this be a vote of confidence for you from Street in Musk._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaking of that Bitmain IPO blog.bitmex.com/unboxing-bitmains-ipo/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just daily volatility will finish positive
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think they did a great job !! They used the M3 (so few modifications in the chain to build it), which will allow them to grab SUV customers, they did like all car manufacturers, have a line and pull out all the segments with that style, plus they don't l...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going to 2k then 1k then forgotten for [PESSIMISTIC VALUE] years_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strong buy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within now and 2/3 months, Tesla stock will hit $500 and higher._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following yesterday's post, 1D continued to exert sell pressure while testing MA50(8290) and with negative MOM=-[PESSIMISTIC VALUE]. A common price action post bearish divergence as posted earlier (May 10 or earlier). BTC is trading just under MA50. the 1D channel down w...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who knows, Maybe they were all drunk at the fed for Janet's farewell party and they just dropped the ball this week. YA, RIGHT.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[OPTIMISTIC VALUE] tomorrow??_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So the dip is over? Did you all took your faucet rewards/bought at low?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I said [PESSIMISTIC VALUE] getty up
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big week!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOOK AT THE VOLUME! SOMEONE IS BUYING HARD._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strong market ☆☆☆☆☆
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] is on the way._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From now on its mostly an upward ride bros_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soon trump will start closing the market every time it starts going down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seems this is the ,most stable company in nasdaq.. Perfect balance sheet_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+[PESSIMISTIC VALUE].5% in the last 2 hours with a top 50 coins index  - not bad. hope BTC stays above 11k overnight_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy 25018 SL 25001 target 25083.25126 and 25178+
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Really depends on QQQ. If that drops 300 will break. If it continues higher support will probably hold._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin the uptrend. first stop - [OPTIMISTIC VALUE]._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's still not done falling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good day for the bulls. U.S. futures were higher on Tuesday, pointing to a recovery on Wall Street a day after a steep selloff, as investors turned their focus to the Federal Reserve's latest policy meeting kicking off later in the day._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD about to dive next week. Pump and dump this ******by November. That is all._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sell25337 target 25190 sl25347
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going in at 320?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one more correction below 6k is in sight :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guess that you guys that are long on earnings did not forget to put a stop loss... am I wrong? May the gain be with you_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE]% up within 28 minutes, that's what you'd call a nice trade!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Intra-day Buy above 25947 Sell below 25892. Bullish above 25965. Bearish below 25874
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cnbc.com/2019/03/06/volvo-may-not-sell-its-tesla-rival-electric-car-in-the-us-over-tariffs.html_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA [PESSIMISTIC VALUE] on 1HR is starting to flatten out....might get the elastic band effect_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even goverment shutdown dji will remain in super bullish manner!dont u believe it
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is now a waterfall as bulls are exhausted and cannot stand against selling bids of 10.000  per tick._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supporting at [PESSIMISTIC VALUE]% fibbo retracement.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple is an 'amazing' company with best profit potential in tech, Bill Gates says. https://www.cnbc.com/2018/05/07/apple-is-an-amazing-company-says-bill-gates.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any attempt by the bulls is met by huge (10000 per tick) selling bids. volume is gigantic for the first five minutes. over the last three trading days over a third of shares have changed hands. there is also a huge bearish engulfing for the five minute cha...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think will go to [PESSIMISTIC VALUE] but before that will meet 8000to8200_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bear traplook at monthly closing you can know the trendbear market
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have nothing against Tesla cars. but Tesla stock price is undeniably beyond bubble._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i’m holding my all crypto from one year.. but thing is that i bought in every dip.. yesterday i bought alot.. if it goes value of last year than i’ll be millioner for sure.. thing is that i don’t loose hope &amp;amp; if it goes big O i don’t come poor handed .. ta...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China Regulator to Propose 50% Cut to Car Purchase Tax
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looking to 50 shares more around [PESSIMISTIC VALUE]$ and 65 more if it manages to get to 280$_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the price only goes up when there is uncertainty in the markets , most probably the price is going up for [PESSIMISTIC VALUE] but it all depends on the safety of the market_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0826
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My 2019 target used to be $420, now it is $500. Jump will be bigger than this artificial dip._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How much will BTC be worth in January? Or [PESSIMISTIC VALUE]?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trump creating a diversion so we don't pay attention to collusion. He proves it's true. He is a complete **** No wonder his casino went bankrupt. America's next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stay short in Tesla..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the Resistance zone = 9.058.15 - 9,188.56 now broken, there is no other barrier on 1D before 9,911.40 and eventually 11,780 (1W 38.20% Fibonacci). This will not be delivered on a straight Channel Up, but will print pull backs, which should be bought. ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After reaching 25200...... becareful of up and down....might drop and then back to 25200 around there and close around 25200
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sholder formation waiting for head sell at top till foot after tomorrow._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDAX about to break $9K....if you love volatility and love using the futures markets, congrats!!! Selling futures premium might be a decent play into next month._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now , carefully- oil report in 15 min. Can be negative....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290 held_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmation of "above 8900"... or rejection? The door to [OPTIMISTIC VALUE] is opened? Any reasonable thoughts from traders? LOL_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down above trend start only when cross &amp;amp; sustain above [OPTIMISTIC VALUE], b careful big crash come from today onwards...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you miss, miss and miss._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Goldman Sachs thing is an excuse, GS is working on custody first, full trading desk to follow..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now trend line up at 24630...if break and not sustain sell with small SL 24670.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greeen_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my precious red_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All going to depend on what the sanctions might be. There are many European businesses that trade with Iran and heavyweight US ones, both at some point involved in the supply chain. If what he says is going to hurt those, then there will a fall. Look back ...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3 most sold car in 2019 in Norway (12.5% of all cars)!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..fireworks coming_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last train for buy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The semi "sad" thing is when this hits [OPTIMISTIC VALUE], you guys wont be around.. :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's time to buy BTC... Don't be late..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close time
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSLA 's S&amp;amp;P;'s rating is 6 notches below Investment Grade. how miserable is that? just a matter of time before the institutional investors jump ship. when they do, done!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Careful now! This can be the breakdown to sub 6K!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crazy ...RIP sellers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this the bottom?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nice to have a choice, right, ads or crypto mining:. . Digital media publication Salon is offering its visitors an alternative to traditional online ads: allowing the site to use their computer processing power to mine cryptocurrency.. . In order to provid...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwain, im in agreement with your forecast.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16% in premarket guyw...307$ hahaha go go go Tesla..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While the 50S &amp;amp;P50; drops Bitcoin will take money and increase in value, Bitcoin always benefits))_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.200-26,400
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General motors stock looking pretty good right now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I guess CryptoGeorge has closed his shorts by now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British banks may have been used for illicit payments related to Huawei: WSJ. . https://www.cnbc.com/2018/12/10/uk-banks-may-have-been-used-for-iran-payments-related-to-huawei-wsj.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smart money shaking out weak hands!  Hold on longs :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A highly volatile day with a price rejection at both [PESSIMISTIC VALUE]-days and 20-days MAs. They only way to survive in this current market situation is to avoid excessive leverage and/or stop-losses. Much of the game for now is the waiting mode i.e. media/news driven. ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price hits major downtrend line, price falls. classic TA and price action is all you need :P
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double top pattern already near 382_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In [PESSIMISTIC VALUE] i have gave just 1 Dollar to beggar! But in 2017 he worth is 20k.. The man is KUMAR! life support just one time not everytime LOL_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy the dip and make money this the easiest and consistent way in this crazy market. why do you need to analyze too much ? just go with the flow and trail stoploss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESLA NEXT TARGET [OPTIMISTIC VALUE]-310 ONE WEEK IF BREAK 309 WILL GO 330 347 SL 276_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looking for the development of a head and shoulders pattern on the daily. For that to become valid, 5k rage as per bitstamp has to be broken with volume. In the long run this is just noise._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow 24185 turning south soon!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I believe in Elon, but what do I know anyway._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how do i save an investingcom chart?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUMP is stressed, loosing on all fronts, Trade war to democrate taking over the house. GG Trump.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla model 3 outsells all bmw auto cars for last month!  https://www.autoblog.com/2018/09/06/tesla-model-3-outsells-entire-bmw-car-lineup/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed to make a lower low which indicates the slow grind up will continue, strong resistance bands in the way but [OPTIMISTIC VALUE] should come but it will be with snakes and ladders. Bitfinex nonsense caused the drop in my view...._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wats ppt?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] support after 290. Get ready_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Again $200bln market cap is very sentimental and strong that anything can happen. First and foremost the historical records may tumble and btc may go crazy. Secondly, a long battle for months may happen which will be difficult to trade until September. Peo...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic group will destroy Dow and economy because they lost President Chair ... Republican will destroy it too because they got President Chair :)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up 2.5 % in the premarket because 'a' analyst firm upgrade the stock,ff_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im thinking monday if its at [PESSIMISTIC VALUE].5k or higher it will trigger a sell off. Look for the dip in the morning. Won't last long it will creep up again._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Intra-day Buy above 24711, Sell below [PESSIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wow they sold 400k in one shoot! amazing_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trend is back up now.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seems that the market do not trust US statistics... Honestly, with all revisions of Dec. figures, Jan. NFP can not be correct vs estimate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285 - stop loss. I've bought Tesla  just yesterday at 304, having thought it was really low. . Lucky am I that I have not invested at over [OPTIMISTIC VALUE] level._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interesting representation https://upload.wikimedia.org/wikipedia/commons/[PESSIMISTIC VALUE]/[PESSIMISTIC VALUE]6/Money_flower.png_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i lost 550$ within 15min only
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definitely bearish trend intact. Australia 3 million grant for Tesla battery business caused short term bulls. We resume downtrend untill further updates or news data_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does anyone know how to buy Cardano by any chance?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">futures - bears 130 bulls 0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why wouldnt u buy nio instead_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will see if [OPTIMISTIC VALUE] support holds, then buy. Otherwise it will see 6800 for sure._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day close below 24990 is important for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next long is [PESSIMISTIC VALUE] to 243_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at intraday, looks like only one person playing with this. Pump then dump, pump then dump, rinse then repeat._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load the north boat again target [PESSIMISTIC VALUE] ---&amp;gt; 25650
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sell just sell_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH soon? LOL_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWN reach 26800k before reduce in 12.2018 when Fed action
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not battery no cars that easy!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big z you still here_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall St inches higher on tech boost and Johnson &amp;amp; Johnson???. What about some systemic facts such as 'Containerboard Carnage Wipes Out $3 billion in minutes'. I suppose this is a form of negligible optimism. Trade the farce
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rise will be brutal.. ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the battle for [PESSIMISTIC VALUE].5k is on.. lets go!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow will never see above [OPTIMISTIC VALUE] again
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where is the price going? Up or back down?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price-wise, this was [PESSIMISTIC VALUE]% spot on, 2500$ profit per 1 btc traded was possible. Amazing. . https://www.tradingview.com/chart/BTCUSD/cHxOA19s-updated-BTC-USD-projected-bottom-based-on-EW-count-18/_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to check US 10 years bond yield It’s going up nearly 3% What will happen in the stock market
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">already up 15% pre market_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's starting - Japan money transfer giant SBI Remit is now letting nearly half a million customers send money to Africa using the bitcoin blockchain....._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pump it up.........
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technical analysis https://www.parateknik.com/2018/12/teknik-analiz-neden-onemlidir.html?m=1_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p o n z i is not allowed_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow intraday long above 25377. Short below 25288
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No worries for sale..if cars into China market.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a small dip... bulls still in play_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS !! Don't leave me with my tons of shorts on losss!!! Lows 23 by end of the week cmoooonnnnnn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How this Tesla news about exploding will affect Tesla stock?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool :)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow Intra-day Buy above 24924, Sell below [PESSIMISTIC VALUE]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up and crash..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG what is next ?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUP....looking much better :) ..tomorrow we will see what happens.. it's so volatile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massive buy come in_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iam waiting to buy around $[PESSIMISTIC VALUE] do you guys think my unexpected dream will come true_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">today will not touch [OPTIMISTIC VALUE] . place short order @ 25290 TP 25200
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watching this ascend will be wonderful in coming days with the background screams of fearmongers. ;P_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb. 6th US congress Committee on Banking, Housing, and urban affairs will meet in open session to discuss virtual currencies.  Would be nice for some good news for a change.  Just be ready that day for anything.  Banking.senate.gov had the article._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today is Black Friday. DJ must be loss 1500p. Do not Long pls
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes it's a roller coaster...iam holding tight_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily RSI channel-up couldn't gain a bullish momentum (above [PESSIMISTIC VALUE]) and printed another lower high (6848) post early June LH (7777). BTC puts a bearish engulf straight from Fib23.6 to Fib0.5 evident on 5H. If this holds, it will be an indication of upward re-...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It wants the 23860 level back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short squeeze open_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsibility Token...   #CRAEFUL_GANG... LOL_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trendline support from 2016 get broken. Trend reversed to down
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wow._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For anyone in here that don't doubt, I have question, is there anybody in here that is able to aproximatly put a correct valuation on this asset ? Please make a name for yourself.. pleaaaase (:-)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi everyone, is it a good idea to short market at this level, 26.6K?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsla is a boring company buy NIO!!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] k was the psychological border for many. Since it was breaked again for many people it gave hope. It has shown to all of us that bitcoin is and will not be over! So 9700 will be the bottom._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how much money do bears need to lose before they get it. Its going UP and nowhere but
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you are trading based on daily short term, you may check out Germany’s Tesla stock which opened earlier than US. That way, you have a general idea what the sentiments is going, green or red._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don't be fooled with the FOMO pump and dump, no reason for it to be up_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks like Dow follow some invisible for us plan- no matter what....... Dollar went up on Trump ,Dow felt for a while and back to 26400 ,as planned .....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just sell and buy it back at 100_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PESSIMISTIC VALUE] minutes to go ....doesn't look good..._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it will definitely crashes on last hour
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a little more pushhh and make it [OPTIMISTIC VALUE] and than 295_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don’t believe btc to continue rising .... fake rocket Skyfall will happen_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bull, you rass is grass !!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this company is built on tweets and fake news.no other company go up for some tweet from the ceo.the time will come like BlackBerry ,solyndra or Enron.all money from the government space x or solarcity._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earlier on I posted the partial rejection on 5H and just after two bars, BTC rejects 6300 (Fib50%) with a bullish dragonfly doji on 1H. This may complete the corrective wave#[PESSIMISTIC VALUE] on daily. Note that the 5H still has to close while the daily remains neutral. D...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook Sorry, something went wrong. We're working on it and we'll get it fixed as soon as we can.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think the numbers will be worse than expected.  There is a reason why largest fund is selling!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little unfovorable news from France. About banning advertisment of some coins and regulation. So this can be the reason behind the drop. Still it will not break [PESSIMISTIC VALUE]$._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beautiful, Im making money betting the opposite of what I think will happen lol
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reminds me WDC like a month ago when I bought at 38. Then it dropped to 34.. Sold it at 47! ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..news based off of hong kong newspaper_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4Ref.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junk stock_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear [PESSIMISTIC VALUE]._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book profits in sell call at 25662
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla surprised me today with $279 test.  We are on top of the channel now.  Let's see if it will turn back from here towards $[PESSIMISTIC VALUE]_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guys check out rdd and nyc coins_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy dip buy dip, make easy easy money guys.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boris how much did you buy?  Are you still in Ko?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">five in near week_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBEY !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">love how when I said there would be pain I was booed out of the forum. apparently I had no idea what I was talking about. WTI if you want to catch me you know which forum to post in. I'm going to post less overall as I've been reminded enough times that sh...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fake news subsiding_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow futures were 150 points down after hours on "*US Is preparing to release a new USD 200bln tariff list"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chart is horrible $[PESSIMISTIC VALUE].61 next stop after breaking that $180 its bad man! Sell now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seems some guyz are catching the falling knife... Let's see injured or won.._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow just wants to crush all retail bears in US just like Nifty here in India which wants to crush the last retail bear.. Markets are going down but these moves just ***all your capital and when actually the down move happens we will be left with very littl...Show more
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obviously still people decide to buy at like 308$... why? Would not want to buy for [PESSIMISTIC VALUE]$!_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aren't unskilled reactionary traders great. Now all the important overhead MA's which are highly important for regulating proper flow and wave sequences are jumbled up between exchanges. Nice potato/banana in the tailpipe._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rip was to be sold no matter what it seems
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will finish green_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refresh, load, lock and block. You can't fix st_upid but blocking is another story ;)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sell 23270 for 80 points down
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrivi unhow much it bothers Musk and the EV in the world from 1 to 100? .... answer 100 tuo commento su Tesla Inc_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small bounce now would be nice, my [PESSIMISTIC VALUE].9 buy order on ada got hit earlier than i expected...._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risky to short before confirmation. Short only break below [PESSIMISTIC VALUE]. Above that it is buy the dips with very small stop losses! If you are lucky 26600 is just around the corner and 30000 by end of 2018.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anyone just listen to Elon on the call?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We should know all that is needed with in the next [PESSIMISTIC VALUE]+/-min what kind of session Asia has in mind. End game my tgt is still 6375+/- bitfinex Shorts do you really think the ppl who bought near 4k holding 20%+/- profit are all that interested in selling off ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.000 then 1,000,00 by end of month
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesla is purely a speculation vehicle with no intrinsic economic value._x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We should cross 9700$ for bullish trend_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy HUM....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wow, what happened, was away from screen for a day_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fud became the bitcoin itself... people are scared to jump in now ... it become a waiting game on who blink first_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow intraday Buy above 25558. Sell below 25506
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I found this article for you: Tesla boom lifts Norway's electric car sales to record market share For the full story: https://www.investing.com/news/technology-news/tesla-boom-lifts-norways-electric-car-sales-to-58-percent-market-share-1823747 To download ...Show more_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA chart: https://invst.ly/7m5ln_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dow futures negative but Dow is in positive . might be short covering boosted Dow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmon guy musk told that the next quarter is not to bad .buy now we are going private at $4000_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I advice Buy W3C (w3coin( it's going to go Up. It on it's bottom . hitbtc allow to buy it now_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is not going to enough Money!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i see ascending wedge_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expect the unexpected_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24600 today
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely we can buy at 242 and sell at [OPTIMISTIC VALUE]?_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fed reserves view on crypto  https://files.stlouisfed.org/files/htdocs/publications/review/[PESSIMISTIC VALUE]/01/10/a-short-introduction-to-the-world-of-cryptocurrencies.pdf_x000D_
+    <t xml:space="preserve">I found the best App for Calculate &amp;gt; Crypto Investmen Calculator_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont know much dips u can buy....buy it till it goes down to 12k of dji....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a day!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current real work related experience: you are a singaporean company with a bank account in singapore dollars. You signed a contract in Egypt with a rate calculated in usd équivalent paid in Egyptian pound. You have to delivered a bank guarantee for the con...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will rise till the end of raising rates_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smear campaign is in full swing. The production is all time high but sales are decreasing based on US data, OK???!?! :) 8 RO-RO ships delivered M3 to EU in this Q. That is at least 32K M3s right there (It can go over 40K, each ships carries 4-5K cars). Elo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do your own due diligence, don't trust anyone including me, have good risk mgmt intact, safe trading GL :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMMER TIME_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I mean seriously shorts, define the 'lies of Musk' you mention every day, since I clearly must have different definition. Thanks._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short that garbage!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dow drop  [PESSIMISTICVALUE]  this week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnbc.com/2019/03/05/morgan-stanley-against-the-law-for-automakers-to-sell-cars-like-tesla-does.html_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good morning NYC. Prepare your purchase orders its going to be a big party_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For those of you who are fed up with stocks and want to feel the hype of cryptos SC siacoin will x5 in a few days.it's worth it to get some fast profit_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://invst.ly/87sh7_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we cant break this 4h channel down, i see my target from june ( [PESSIMISTICVALUE] ) finally hit._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just reading predictions with expectation of uplift by 3-5 % in q1 ....we have halve of it during 4 days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying tesla now ! Easily 10% return._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.com/news/business-46209149_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs Reports is laughable_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I quit my long when Model Y will be widely available. By that time my profit should cover its price. Does anyone want Model Y for free? Sign in now before it's too late._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..throw your charts away baggies and pray_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Again... This waiting for the world to fall apart stuff is not easy. Go Doom!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will break the support this week end; better to buy on monday._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Are done, let kicks short *****! Let go_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are inversions in both swaps and gov bonds. The bears are waking up from a very long hibernation and will be very hungry._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This market in October has been wild!!!. With big corretions, hope next month it settle a bit.. What do you guys think??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] % up within 28 minutes, that's what you'd call a nice trade!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short-term 1st target:  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I m astonished how Musk has Credibility left_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch App coin APPC, will fly x3_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000 looking imminent_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla shares fall on report SEC asks judge to hold Elon Musk in contempt for violating deal. Cnbc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@michael som r u going to short again? Price is above 13k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The low volume concerns me._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla doesn't make solar nor the rockets_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not buy rush. 7k coming. I will wait btc at 6k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market overreacting_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She's rollin_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After months of uncertainty, there are indications that India may not, after all, opt for a blanket ban on virtual currencies. A finance ministry panel set up to study them may even suggest that they be treated as commodities.. . . https://qz.com/1324595/i...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont understand the dummys that keep investing at the moment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a short play. I think we'll hit  [PESSIMISTICVALUE]  on the rebound, or maybe slightly lower (fibo).786 / .618 depending on where you measure it from. Hopefully it'll come tomorrow, and we'll start the bulll run._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] .5K and NO ****Sunday!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so bad, the timing is everything._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamath Palihapitiya... watch his video talking about Tesla. Case closed._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin will go to 6.000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK are you still short?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto tariffs will obviously affect international expansion of TSLA... China does have its own EV cars, though not as good yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine how the last get rich fast people feel like ! A tsunami of sells are on the way..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems to ne trap market_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between tesla and oil... no problem who invest in Tesla... because Tesla sell product... Tesla bigger oil cheaper... so no problem who invest.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As expected, the price has been trading sideways mostly within 6.600 - 7,180 as the previously oversold indicators harmonized. 6,000 didn't break so I am waiting for the 1D Channel Down (RSI = 34.234, Highs/Lows = -637.6137) Lower High to short. I previous...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop speculating and look at the market people._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I argue it is not bad news actually. Tesla will be buying cheaper batteries from Chinese producers and with Maxwell deal producing truly its own batteries. Alas people just react without much thinking._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I even sold my bicycle and invest in CryptoCrap,  not only I didn't get profit, now I have to walk to go to work , no more bicycle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait when the market go south with the interest rate going up will be soon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market manipulator is in trouble as market action does not follow as they want. The time when they give up massive correction will happen very deep down to 8K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold usd jpy 4 lots_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only way is downward for TESLA!!! I wouldn't want to be caught dead smoking pot if I were CEO_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i’m hindu.. Btc exist for all religious! tc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This means up tomorrow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letu0027s recap.Tesla missing the 5000 cars again.bilions in debt.sells are going down No reservation for s and x .law suit every where bilions in liability.losing money every car made .anything else?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is George we have been waiting for him long time already_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some heavy selling there !! . But I dont sense enough fear. Everyone just assumes we will get an immediate pullback.  That has always happened to far this year. If we fall and stay, and then fall further, only then would we see real fear. . There are still...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very bearish now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security tokens in general are moving... DOGE XMR XVG. No surprise Like ETH and ETC._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel them from inside - they now trying to pump up the futures and suppressing gold. Funny thing - I tiptoed out from this madness._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nooo why i was waiting for the $ [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my broker prices is 5.161 now I'm waiting to cross 5,205 to see the jump to 5,600 by today itself and 6,180 this week in sequence the week/monthly trend still strong as expected_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will Dow fall now?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.byton.com/m-byte-concept - Compared to this beauty, Tesla X looks like an odd Bubbly VW beetle._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy the ride all the way down to 4K. The end is near._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottest CPI no. Since 2012 Lowest unemployment Inflation up above the target I think we have seen the top for the Dow It is as good as it gets With 3 more rate hikes Dow won’t go higher  [PESSIMISTICVALUE]  in reach_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok the demand for the S and X is going down no up like they told last week.this company will go down. so many fake news to keep the stock up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I repeat....EMA50 just kissed the EMA100 on valentines day.....think we might get a hot reaction today boys.....enjoy the jump_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks so cheap ...just keep on buy in_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ready musk will ask more money$$$$ Shutting down model 3 is perfect excuse to raise more $$$$.this will never end:)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful H_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonna test highs_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boy am I happy I did not short it!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw those wall st *****heads manipulating our markets!! This ours..they cant manipulate it if we all unite and buy.tell everyone you know..do not panic sell! Hold and buy. #h_x000D_
 </t>
   </si>
 </sst>
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5906,693 +5906,693 @@
         <v>302</v>
       </c>
     </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>303</v>
+      </c>
+    </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="2" t="s">
-        <v>334</v>
+      <c r="A337" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>418</v>
+      <c r="A421" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>434</v>
+      <c r="A437" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" t="s">
+      <c r="A481" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="2" t="s">
+      <c r="A527" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" t="s">
+      <c r="A537" s="2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" t="s">
+      <c r="A614" s="2" t="s">
         <v>611</v>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="2" t="s">
+      <c r="A616" t="s">
         <v>613</v>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="2" t="s">
+      <c r="A662" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="2" t="s">
+      <c r="A685" t="s">
         <v>682</v>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
     </row>
     <row r="762" spans="1:1">
-      <c r="A762" t="s">
+      <c r="A762" s="2" t="s">
         <v>759</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="2" t="s">
+      <c r="A770" t="s">
         <v>767</v>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
     </row>
     <row r="804" spans="1:1">
-      <c r="A804" t="s">
+      <c r="A804" s="2" t="s">
         <v>801</v>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
     </row>
     <row r="808" spans="1:1">
-      <c r="A808" s="2" t="s">
+      <c r="A808" t="s">
         <v>805</v>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
       </c>
     </row>
     <row r="833" spans="1:1">
-      <c r="A833" t="s">
+      <c r="A833" s="2" t="s">
         <v>830</v>
       </c>
     </row>
@@ -8797,7 +8797,7 @@
       </c>
     </row>
     <row r="884" spans="1:1">
-      <c r="A884" t="s">
+      <c r="A884" s="2" t="s">
         <v>881</v>
       </c>
     </row>
@@ -8822,12 +8822,12 @@
       </c>
     </row>
     <row r="889" spans="1:1">
-      <c r="A889" t="s">
+      <c r="A889" s="2" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="890" spans="1:1">
-      <c r="A890" t="s">
+      <c r="A890" s="2" t="s">
         <v>887</v>
       </c>
     </row>
@@ -9032,7 +9032,7 @@
       </c>
     </row>
     <row r="931" spans="1:1">
-      <c r="A931" t="s">
+      <c r="A931" s="2" t="s">
         <v>928</v>
       </c>
     </row>
@@ -9047,7 +9047,7 @@
       </c>
     </row>
     <row r="934" spans="1:1">
-      <c r="A934" t="s">
+      <c r="A934" s="2" t="s">
         <v>931</v>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       </c>
     </row>
     <row r="938" spans="1:1">
-      <c r="A938" t="s">
+      <c r="A938" s="2" t="s">
         <v>935</v>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
     </row>
     <row r="991" spans="1:1">
-      <c r="A991" t="s">
+      <c r="A991" s="2" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9388,16 +9388,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A58" r:id="rId1"/>
-    <hyperlink ref="A194" r:id="rId2"/>
-    <hyperlink ref="A337" r:id="rId3"/>
-    <hyperlink ref="A527" r:id="rId4"/>
-    <hyperlink ref="A607" r:id="rId5"/>
-    <hyperlink ref="A616" r:id="rId6"/>
-    <hyperlink ref="A662" r:id="rId7"/>
-    <hyperlink ref="A685" r:id="rId8"/>
-    <hyperlink ref="A770" r:id="rId9"/>
-    <hyperlink ref="A808" r:id="rId10"/>
+    <hyperlink ref="A61" r:id="rId1"/>
+    <hyperlink ref="A158" r:id="rId2"/>
+    <hyperlink ref="A172" r:id="rId3"/>
+    <hyperlink ref="A179" r:id="rId4"/>
+    <hyperlink ref="A232" r:id="rId5" location="referrer=https://www.google.com&amp;amp;_tf=From%20%251$s&amp;amp;share;=https://www.engadget.com/2019/03/08/tesla-investors-s...Show%20more &#10;"/>
+    <hyperlink ref="A245" r:id="rId6"/>
+    <hyperlink ref="A275" r:id="rId7"/>
+    <hyperlink ref="A299" r:id="rId8"/>
+    <hyperlink ref="A421" r:id="rId9"/>
+    <hyperlink ref="A437" r:id="rId10"/>
+    <hyperlink ref="A481" r:id="rId11"/>
+    <hyperlink ref="A537" r:id="rId12"/>
+    <hyperlink ref="A607" r:id="rId13" location="5d54b506664c &#10;"/>
+    <hyperlink ref="A614" r:id="rId14"/>
+    <hyperlink ref="A762" r:id="rId15"/>
+    <hyperlink ref="A804" r:id="rId16"/>
+    <hyperlink ref="A833" r:id="rId17"/>
+    <hyperlink ref="A884" r:id="rId18"/>
+    <hyperlink ref="A889" r:id="rId19"/>
+    <hyperlink ref="A890" r:id="rId20"/>
+    <hyperlink ref="A931" r:id="rId21"/>
+    <hyperlink ref="A934" r:id="rId22"/>
+    <hyperlink ref="A938" r:id="rId23"/>
+    <hyperlink ref="A991" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
